--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA685FA-5515-BE4A-A970-E45DF9C4EC31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D5751-9B90-2246-A95D-DF9A93844ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="38400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -1634,9 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1706,7 +1706,8 @@
       </c>
       <c r="K2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label """&amp;D2&amp;""" .
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
@@ -1715,11 +1716,12 @@
     crm:P14 """&amp;G2&amp;""" ;
     crm:P67 &lt;"&amp;J2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;H2&amp;""" ;
-        crm:P115 """&amp;I2&amp;""" 
+        crm:P116 """&amp;O2&amp;""" ;
+        crm:P115 """&amp;P2&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:49
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "甑島のトシドン" .
 &lt;http://example.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:49 ;
@@ -1728,8 +1730,8 @@
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-12-31" ;
-        crm:P115 "2018-12-31" 
+        crm:P116 "" ;
+        crm:P115 "" 
     ] . </v>
       </c>
     </row>
@@ -3274,7 +3276,19 @@
         <v>166</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>"ifcp:"&amp;A38&amp;"
+    rdf:type crm:E1 .
+&lt;http://example.org/ifcp/"&amp;A38&amp;"/held/2018/"&amp;B38&amp;"&gt;
+    rdf:type crm:E5 ;
+    crm:P17 ifcp:"&amp;A38&amp;" ;
+    crm:P7 """&amp;E38&amp;""" ;
+    crm:P7 """&amp;F38&amp;""" ;
+    crm:P14 """&amp;G38&amp;""" ;
+    crm:P67 &lt;"&amp;J38&amp;"&gt; ;
+    crm:P4 [
+        crm:P116 """&amp;H38&amp;""" ;
+        crm:P115 """&amp;I38&amp;""" 
+    ] . "</f>
         <v xml:space="preserve">ifcp:299
     rdf:type crm:E1 .
 &lt;http://example.org/ifcp/299/held/2018/&gt;

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D5751-9B90-2246-A95D-DF9A93844ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CEBA86-4755-FA41-A857-2C1057456F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="500" windowWidth="14040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -627,12 +627,154 @@
     <t>subID</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>薩摩河内市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>男鹿市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南九州市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>美郷町</t>
+    <rPh sb="0" eb="3">
+      <t>ミサトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>龍郷町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>美里町</t>
+    <rPh sb="0" eb="3">
+      <t>ミサトマチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>五島市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴトウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>糸魚川市大字青海</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鳥羽市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岩国市周東町祖生</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>宮古島市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>久留米市大善寺町</t>
+  </si>
+  <si>
+    <t>五條市</t>
+    <rPh sb="0" eb="1">
+      <t>ゴジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大磯町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>にかほ市象潟町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>登米市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>佐賀市蓮池町見島</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大船渡市</t>
+    <rPh sb="0" eb="1">
+      <t>オオフナトシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>西尾市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大田市五十猛町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東松島市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鳥取市気高町酒津</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>三島町</t>
+    <rPh sb="0" eb="3">
+      <t>ミシママチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入善町上野</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>柳井市阿月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>山口市阿東</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>十島村悪石島</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>三島村硫黄島</t>
+    <rPh sb="0" eb="1">
+      <t>ミシマムラ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -800,6 +942,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="ヒラギノ明朝 ProN W3"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1242,7 +1391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1423,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,9 +1786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1692,6 +1844,9 @@
       <c r="E2" t="s">
         <v>82</v>
       </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>94</v>
       </c>
@@ -1726,7 +1881,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:49 ;
     crm:P7 "鹿児島県" ;
-    crm:P7 "" ;
+    crm:P7 "薩摩河内市" ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P4 [
@@ -1748,6 +1903,9 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1919,7 @@
         <v>106</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K38" si="0">"ifcp:"&amp;A3&amp;"
+        <f t="shared" ref="K3:K37" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 .
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
@@ -1780,7 +1938,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:51 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "男鹿市" ;
     crm:P14 "男鹿のナマハゲ保存会" ;
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P4 [
@@ -1898,6 +2056,9 @@
       <c r="E6" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="G6" s="8" t="s">
         <v>90</v>
       </c>
@@ -1918,7 +2079,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:109 ;
     crm:P7 "鹿児島県" ;
-    crm:P7 "" ;
+    crm:P7 "南九州市" ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
     crm:P67 &lt;https://kanko-minamisatsuma.jp/event/7547/&gt; ;
     crm:P4 [
@@ -1940,6 +2101,9 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +2124,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:110 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "美郷町" ;
     crm:P14 "六郷町カマクラ保存会" ;
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P4 [
@@ -1982,6 +2146,9 @@
       <c r="E8" t="s">
         <v>82</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G8" t="s">
         <v>83</v>
       </c>
@@ -2002,7 +2169,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:124 ;
     crm:P7 "鹿児島県" ;
-    crm:P7 "" ;
+    crm:P7 "龍郷町" ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
     crm:P67 &lt;http://amamishimbun.co.jp/2018/09/11/13136/&gt; ;
     crm:P4 [
@@ -2024,6 +2191,9 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +2214,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:131 ;
     crm:P7 "埼玉県" ;
-    crm:P7 "" ;
+    crm:P7 "美里町" ;
     crm:P14 "猪俣の百八灯保存会" ;
     crm:P67 &lt;https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/&gt; ;
     crm:P4 [
@@ -2066,6 +2236,9 @@
       <c r="E10" t="s">
         <v>79</v>
       </c>
+      <c r="F10" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="G10" t="s">
         <v>80</v>
       </c>
@@ -2086,7 +2259,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:135 ;
     crm:P7 "長崎県" ;
-    crm:P7 "" ;
+    crm:P7 "五島市" ;
     crm:P14 "下崎山町内会" ;
     crm:P67 &lt;https://www.nishinippon.co.jp/item/n/388880/&gt; ;
     crm:P4 [
@@ -2108,6 +2281,9 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
+      <c r="F11" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
@@ -2128,7 +2304,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:138 ;
     crm:P7 "新潟県" ;
-    crm:P7 "" ;
+    crm:P7 "糸魚川市大字青海" ;
     crm:P14 "青海竹のからかい保存会" ;
     crm:P67 &lt;https://www.itoigawa-kanko.net/trad/ominotakenokarakai/&gt; ;
     crm:P4 [
@@ -2150,6 +2326,9 @@
       <c r="E12" t="s">
         <v>49</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
@@ -2170,7 +2349,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:140 ;
     crm:P7 "三重県" ;
-    crm:P7 "" ;
+    crm:P7 "鳥羽市" ;
     crm:P14 "松尾地下，河内地下" ;
     crm:P67 &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
     crm:P4 [
@@ -2192,6 +2371,9 @@
       <c r="E13" t="s">
         <v>67</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>95</v>
       </c>
@@ -2209,7 +2391,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:145 ;
     crm:P7 "山口県" ;
-    crm:P7 "" ;
+    crm:P7 "岩国市周東町祖生" ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
@@ -2276,6 +2458,9 @@
       <c r="E15" t="s">
         <v>92</v>
       </c>
+      <c r="F15" t="s">
+        <v>183</v>
+      </c>
       <c r="G15" t="s">
         <v>93</v>
       </c>
@@ -2296,7 +2481,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:158 ;
     crm:P7 "沖縄県" ;
-    crm:P7 "" ;
+    crm:P7 "宮古島市" ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
     crm:P67 &lt;https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/&gt; ;
     crm:P4 [
@@ -2318,6 +2503,9 @@
       <c r="E16" t="s">
         <v>73</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="G16" t="s">
         <v>74</v>
       </c>
@@ -2338,7 +2526,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:162 ;
     crm:P7 "福岡県" ;
-    crm:P7 "" ;
+    crm:P7 "久留米市大善寺町" ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
     crm:P67 &lt;https://mainichi.jp/articles/20180108/k00/00m/040/121000c&gt; ;
     crm:P4 [
@@ -2360,6 +2548,9 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
+      <c r="F17" t="s">
+        <v>185</v>
+      </c>
       <c r="G17" t="s">
         <v>59</v>
       </c>
@@ -2377,7 +2568,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:167 ;
     crm:P7 "奈良県" ;
-    crm:P7 "" ;
+    crm:P7 "五條市" ;
     crm:P14 "念仏寺鬼はしり保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
@@ -2399,6 +2590,9 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
       <c r="G18" t="s">
         <v>29</v>
       </c>
@@ -2419,7 +2613,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:179 ;
     crm:P7 "神奈川県" ;
-    crm:P7 "" ;
+    crm:P7 "大磯町" ;
     crm:P14 "大磯町左義長保存会" ;
     crm:P67 &lt;https://paddler-shonan.com/eye/event-sagicho/&gt; ;
     crm:P4 [
@@ -2441,6 +2635,9 @@
       <c r="E19" t="s">
         <v>14</v>
       </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>96</v>
       </c>
@@ -2461,7 +2658,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:188 ;
     crm:P7 "秋田県" ;
-    crm:P7 "" ;
+    crm:P7 "にかほ市象潟町" ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/14018&gt; ;
     crm:P4 [
@@ -2627,6 +2824,9 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
@@ -2647,7 +2847,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:204 ;
     crm:P7 "宮城県" ;
-    crm:P7 "" ;
+    crm:P7 "登米市" ;
     crm:P14 "米川の水かぶり保存会" ;
     crm:P67 &lt;https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html&gt; ;
     crm:P4 [
@@ -2669,6 +2869,9 @@
       <c r="E24" t="s">
         <v>76</v>
       </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
       <c r="G24" t="s">
         <v>77</v>
       </c>
@@ -2689,7 +2892,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:218 ;
     crm:P7 "佐賀県" ;
-    crm:P7 "" ;
+    crm:P7 "佐賀市蓮池町見島" ;
     crm:P14 "加勢鳥保存会" ;
     crm:P67 &lt;https://www.asobo-saga.jp/event/detail.html?id=2418&gt; ;
     crm:P4 [
@@ -2711,6 +2914,9 @@
       <c r="E25" t="s">
         <v>6</v>
       </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
       <c r="G25" t="s">
         <v>7</v>
       </c>
@@ -2731,7 +2937,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:221 ;
     crm:P7 "岩手県" ;
-    crm:P7 "" ;
+    crm:P7 "大船渡市" ;
     crm:P14 "吉浜スネカ保存会" ;
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P4 [
@@ -2753,6 +2959,9 @@
       <c r="E26" t="s">
         <v>46</v>
       </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
       <c r="G26" t="s">
         <v>47</v>
       </c>
@@ -2773,7 +2982,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:228 ;
     crm:P7 "愛知県" ;
-    crm:P7 "" ;
+    crm:P7 "西尾市" ;
     crm:P14 "鳥羽区" ;
     crm:P67 &lt;https://www.katch.co.jp/kinjo/arekore/arekore44.html&gt; ;
     crm:P4 [
@@ -2795,6 +3004,9 @@
       <c r="E27" t="s">
         <v>64</v>
       </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
       <c r="G27" t="s">
         <v>65</v>
       </c>
@@ -2815,7 +3027,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:236 ;
     crm:P7 "島根県" ;
-    crm:P7 "" ;
+    crm:P7 "大田市五十猛町" ;
     crm:P14 "大浦グロ保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/22712&gt; ;
     crm:P4 [
@@ -2837,6 +3049,9 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -2857,7 +3072,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:240 ;
     crm:P7 "宮城県" ;
-    crm:P7 "" ;
+    crm:P7 "東松島市" ;
     crm:P14 "えんずのわり保存会" ;
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P4 [
@@ -2924,6 +3139,9 @@
       <c r="E30" t="s">
         <v>61</v>
       </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" t="s">
         <v>62</v>
       </c>
@@ -2944,7 +3162,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:250 ;
     crm:P7 "鳥取県" ;
-    crm:P7 "" ;
+    crm:P7 "鳥取市気高町酒津" ;
     crm:P14 "酒津とんど祭り保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/20962&gt; ;
     crm:P4 [
@@ -2966,6 +3184,9 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
+      <c r="F31" t="s">
+        <v>195</v>
+      </c>
       <c r="G31" t="s">
         <v>101</v>
       </c>
@@ -2986,7 +3207,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:253 ;
     crm:P7 "福島県" ;
-    crm:P7 "" ;
+    crm:P7 "三島町" ;
     crm:P14 "三島町年中行事保存会" ;
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P4 [
@@ -3008,6 +3229,9 @@
       <c r="E32" t="s">
         <v>67</v>
       </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
       <c r="G32" t="s">
         <v>68</v>
       </c>
@@ -3028,7 +3252,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:264 ;
     crm:P7 "山口県" ;
-    crm:P7 "" ;
+    crm:P7 "柳井市阿月" ;
     crm:P14 "神明祭顕彰会" ;
     crm:P67 &lt;http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ&gt; ;
     crm:P4 [
@@ -3050,6 +3274,9 @@
       <c r="E33" t="s">
         <v>36</v>
       </c>
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
       <c r="G33" t="s">
         <v>37</v>
       </c>
@@ -3070,7 +3297,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:266 ;
     crm:P7 "富山県" ;
-    crm:P7 "" ;
+    crm:P7 "入善町上野" ;
     crm:P14 "塞の神まつり保存会" ;
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P4 [
@@ -3137,6 +3364,9 @@
       <c r="E35" t="s">
         <v>56</v>
       </c>
+      <c r="F35" t="s">
+        <v>198</v>
+      </c>
       <c r="G35" t="s">
         <v>57</v>
       </c>
@@ -3157,7 +3387,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:277 ;
     crm:P7 "奈良県" ;
-    crm:P7 "" ;
+    crm:P7 "桜井市" ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
     crm:P67 &lt;http://www.pref.nara.jp/17619.htm&gt; ;
     crm:P4 [
@@ -3179,6 +3409,9 @@
       <c r="E36" t="s">
         <v>67</v>
       </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
       <c r="G36" t="s">
         <v>70</v>
       </c>
@@ -3199,7 +3432,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:278 ;
     crm:P7 "山口県" ;
-    crm:P7 "" ;
+    crm:P7 "山口市阿東" ;
     crm:P14 "地福といとい保存会" ;
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P4 [
@@ -3221,6 +3454,9 @@
       <c r="E37" t="s">
         <v>82</v>
       </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
       <c r="G37" t="s">
         <v>85</v>
       </c>
@@ -3241,7 +3477,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:298 ;
     crm:P7 "鹿児島県" ;
-    crm:P7 "" ;
+    crm:P7 "十島村悪石島" ;
     crm:P14 "悪石島の盆踊り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/DA3S13652403.html&gt; ;
     crm:P4 [
@@ -3262,6 +3498,9 @@
       </c>
       <c r="E38" s="8" t="s">
         <v>82</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>88</v>
@@ -3295,7 +3534,7 @@
     rdf:type crm:E5 ;
     crm:P17 ifcp:299 ;
     crm:P7 "鹿児島県" ;
-    crm:P7 "" ;
+    crm:P7 "三島村硫黄島" ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
     crm:P4 [

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CEBA86-4755-FA41-A857-2C1057456F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D980938-1F65-5644-8E63-2D162905AC2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="500" windowWidth="14040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1862,7 +1862,7 @@
       <c r="K2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
-    rdfs:label """&amp;D2&amp;""" .
+    rdfs:label """&amp;D2&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
@@ -1871,12 +1871,12 @@
     crm:P14 """&amp;G2&amp;""" ;
     crm:P67 &lt;"&amp;J2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;O2&amp;""" ;
-        crm:P115 """&amp;P2&amp;""" 
+        crm:P116 """&amp;H2&amp;""" ;
+        crm:P115 """&amp;I2&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:49
     rdf:type crm:E1 ;
-    rdfs:label "甑島のトシドン" .
+    rdfs:label "甑島のトシドン"@ja .
 &lt;http://example.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:49 ;
@@ -1885,8 +1885,8 @@
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P4 [
-        crm:P116 "" ;
-        crm:P115 "" 
+        crm:P116 "2018-12-31" ;
+        crm:P115 "2018-12-31" 
     ] . </v>
       </c>
     </row>
@@ -1919,8 +1919,9 @@
         <v>106</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K37" si="0">"ifcp:"&amp;A3&amp;"
-    rdf:type crm:E1 .
+        <f t="shared" ref="K3:K38" si="0">"ifcp:"&amp;A3&amp;"
+    rdf:type crm:E1 ;
+    rdfs:label """&amp;D3&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
@@ -1933,7 +1934,8 @@
         crm:P115 """&amp;I3&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:51
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "男鹿のナマハゲ"@ja .
 &lt;http://example.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:51 ;
@@ -1981,7 +1983,8 @@
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "能登のアマメハギ"@ja .
 &lt;http://example.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
@@ -2029,7 +2032,8 @@
       <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "能登のアマメハギ"@ja .
 &lt;http://example.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
@@ -2074,7 +2078,8 @@
       <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:109
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;http://example.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:109 ;
@@ -2119,7 +2124,8 @@
       <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:110
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "六郷のカマクラ行事"@ja .
 &lt;http://example.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:110 ;
@@ -2164,7 +2170,8 @@
       <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:124
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "秋名のアラセツ行事"@ja .
 &lt;http://example.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:124 ;
@@ -2209,7 +2216,8 @@
       <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:131
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "猪俣の百八燈"@ja .
 &lt;http://example.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:131 ;
@@ -2254,7 +2262,8 @@
       <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:135
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;http://example.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:135 ;
@@ -2299,7 +2308,8 @@
       <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:138
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "青海の竹のからかい"@ja .
 &lt;http://example.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:138 ;
@@ -2344,7 +2354,8 @@
       <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:140
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;http://example.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:140 ;
@@ -2386,7 +2397,8 @@
       <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:145
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "周防祖生の柱松行事"@ja .
 &lt;http://example.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:145 ;
@@ -2431,7 +2443,8 @@
       <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:156
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;http://example.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:156 ;
@@ -2476,7 +2489,8 @@
       <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:158
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "宮古島のパーントゥ"@ja .
 &lt;http://example.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:158 ;
@@ -2521,7 +2535,8 @@
       <c r="K16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:162
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;http://example.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:162 ;
@@ -2563,7 +2578,8 @@
       <c r="K17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:167
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;http://example.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:167 ;
@@ -2608,7 +2624,8 @@
       <c r="K18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:179
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "大磯の左義長"@ja .
 &lt;http://example.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:179 ;
@@ -2653,7 +2670,8 @@
       <c r="K19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:188
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "上郷の小正月行事"@ja .
 &lt;http://example.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:188 ;
@@ -2701,7 +2719,8 @@
       <c r="K20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "遊佐の小正月行事"@ja .
 &lt;http://example.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
@@ -2749,7 +2768,8 @@
       <c r="K21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "遊佐の小正月行事"@ja .
 &lt;http://example.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
@@ -2797,7 +2817,8 @@
       <c r="K22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "遊佐の小正月行事"@ja .
 &lt;http://example.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
@@ -2842,7 +2863,8 @@
       <c r="K23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:204
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "米川の水かぶり"@ja .
 &lt;http://example.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:204 ;
@@ -2887,7 +2909,8 @@
       <c r="K24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:218
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "見島のカセドリ"@ja .
 &lt;http://example.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:218 ;
@@ -2932,7 +2955,8 @@
       <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:221
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "吉浜のスネカ"@ja .
 &lt;http://example.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:221 ;
@@ -2977,7 +3001,8 @@
       <c r="K26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:228
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "鳥羽の火祭り"@ja .
 &lt;http://example.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:228 ;
@@ -3022,7 +3047,8 @@
       <c r="K27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:236
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "五十猛のグロ"@ja .
 &lt;http://example.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:236 ;
@@ -3067,7 +3093,8 @@
       <c r="K28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:240
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "月浜のえんずのわり"@ja .
 &lt;http://example.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:240 ;
@@ -3112,7 +3139,8 @@
       <c r="K29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:245
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "東光寺の鬼会"@ja .
 &lt;http://example.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:245 ;
@@ -3157,7 +3185,8 @@
       <c r="K30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:250
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "酒津のトンドウ"@ja .
 &lt;http://example.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:250 ;
@@ -3202,7 +3231,8 @@
       <c r="K31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:253
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "三島のサイノカミ"@ja .
 &lt;http://example.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:253 ;
@@ -3247,7 +3277,8 @@
       <c r="K32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:264
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "阿月の神明祭"@ja .
 &lt;http://example.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:264 ;
@@ -3292,7 +3323,8 @@
       <c r="K33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:266
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "邑町のサイノカミ"@ja .
 &lt;http://example.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:266 ;
@@ -3337,7 +3369,8 @@
       <c r="K34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:269
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "三戸のオショロ流し"@ja .
 &lt;http://example.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:269 ;
@@ -3382,7 +3415,8 @@
       <c r="K35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:277
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "江包・大西の御綱"@ja .
 &lt;http://example.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:277 ;
@@ -3427,7 +3461,8 @@
       <c r="K36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:278
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "地福のトイトイ"@ja .
 &lt;http://example.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:278 ;
@@ -3472,7 +3507,8 @@
       <c r="K37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:298
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "悪石島のボゼ"@ja .
 &lt;http://example.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:298 ;
@@ -3515,21 +3551,10 @@
         <v>166</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f>"ifcp:"&amp;A38&amp;"
-    rdf:type crm:E1 .
-&lt;http://example.org/ifcp/"&amp;A38&amp;"/held/2018/"&amp;B38&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P17 ifcp:"&amp;A38&amp;" ;
-    crm:P7 """&amp;E38&amp;""" ;
-    crm:P7 """&amp;F38&amp;""" ;
-    crm:P14 """&amp;G38&amp;""" ;
-    crm:P67 &lt;"&amp;J38&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;H38&amp;""" ;
-        crm:P115 """&amp;I38&amp;""" 
-    ] . "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:299
-    rdf:type crm:E1 .
+    rdf:type crm:E1 ;
+    rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;http://example.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:299 ;

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D980938-1F65-5644-8E63-2D162905AC2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E35FDA6-34DB-4349-900B-172F722BCB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$E$1:$E$56</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -115,9 +118,6 @@
     <t>三戸のオショロ流し</t>
   </si>
   <si>
-    <t>三浦市初声町三戸</t>
-  </si>
-  <si>
     <t>三戸お精霊流し保存会</t>
   </si>
   <si>
@@ -151,9 +151,6 @@
     <t>長野県</t>
   </si>
   <si>
-    <t>下高井郡野沢温泉村</t>
-  </si>
-  <si>
     <t>野沢温泉村野沢組</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
   </si>
   <si>
     <t>兵庫県</t>
-  </si>
-  <si>
-    <t>加西市上万願寺392</t>
   </si>
   <si>
     <t>東光寺追儺式及び田遊び保存会</t>
@@ -628,13 +622,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>薩摩河内市</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>男鹿市</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -684,9 +671,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>久留米市大善寺町</t>
-  </si>
-  <si>
     <t>五條市</t>
     <rPh sb="0" eb="1">
       <t>ゴジョウシ</t>
@@ -768,6 +752,216 @@
       <t>ミシマムラ</t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46000-19700401</t>
+  </si>
+  <si>
+    <t>都道府県URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>所在地URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C05000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C23000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C04000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C35000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15000-19700401</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C42000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C31000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05206-20050322</t>
+  </si>
+  <si>
+    <t>薩摩川内市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46215-20041012</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17204-20060201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17463-20050301</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46223-20071201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05434-20170222</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46527-19750210</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11381-19890301</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C42211-20040801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24211-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260</t>
+  </si>
+  <si>
+    <t>下高井郡野沢温泉村</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20563-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47214-20051001</t>
+  </si>
+  <si>
+    <t>久留米市大善寺町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40203-20080401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29207-20050925</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14341-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700403</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C04212-20061001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41201-20140401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C03203-20011115</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23213-20110401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C04214-20200201</t>
+  </si>
+  <si>
+    <t>加西市上万願寺392</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28220-19941201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C31341-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07444-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350</t>
+  </si>
+  <si>
+    <t>三浦市初声町三戸</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14210-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29206-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46522-19730401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C35203-20100116</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46521-19730401</t>
   </si>
 </sst>
 </file>
@@ -1784,24 +1978,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="8" max="9" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1">
+    <row r="1" spans="1:13" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1813,25 +2007,31 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="409.6">
+    </row>
+    <row r="2" spans="1:13" ht="409.6">
       <c r="A2">
         <v>49</v>
       </c>
@@ -1839,58 +2039,72 @@
         <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="4" t="str">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D2&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 """&amp;E2&amp;""" ;
-    crm:P7 """&amp;F2&amp;""" ;
-    crm:P14 """&amp;G2&amp;""" ;
-    crm:P67 &lt;"&amp;J2&amp;"&gt; ;
+    crm:P7 &lt;"&amp;F2&amp;"&gt; ;
+    crm:P7 &lt;"&amp;H2&amp;"&gt; ;
+    crm:P14 """&amp;I2&amp;""" ;
+    crm:P67 &lt;"&amp;L2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;H2&amp;""" ;
-        crm:P115 """&amp;I2&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:49
+        crm:P116 """&amp;J2&amp;""" ;
+        crm:P115 """&amp;K2&amp;""" 
+    ] . 
+&lt;"&amp;F2&amp;"&gt;
+    rdfs:label """&amp;E2&amp;""".
+&lt;"&amp;H2&amp;"&gt;
+    rdfs:label """&amp;G2&amp;"""."</f>
+        <v>ifcp:49
     rdf:type crm:E1 ;
     rdfs:label "甑島のトシドン"@ja .
 &lt;http://example.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:49 ;
-    crm:P7 "鹿児島県" ;
-    crm:P7 "薩摩河内市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2018-12-31" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
+    rdfs:label "鹿児島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;
+    rdfs:label "薩摩川内市".</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="409.6">
       <c r="A3">
         <v>51</v>
       </c>
@@ -1904,52 +2118,66 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K38" si="0">"ifcp:"&amp;A3&amp;"
+      <c r="J3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <f t="shared" ref="M3:M38" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D3&amp;"""@ja .
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 """&amp;E3&amp;""" ;
-    crm:P7 """&amp;F3&amp;""" ;
-    crm:P14 """&amp;G3&amp;""" ;
-    crm:P67 &lt;"&amp;J3&amp;"&gt; ;
+    crm:P7 &lt;"&amp;F3&amp;"&gt; ;
+    crm:P7 &lt;"&amp;H3&amp;"&gt; ;
+    crm:P14 """&amp;I3&amp;""" ;
+    crm:P67 &lt;"&amp;L3&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;H3&amp;""" ;
-        crm:P115 """&amp;I3&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:51
+        crm:P116 """&amp;J3&amp;""" ;
+        crm:P115 """&amp;K3&amp;""" 
+    ] . 
+&lt;"&amp;F3&amp;"&gt;
+    rdfs:label """&amp;E3&amp;""".
+&lt;"&amp;H3&amp;"&gt;
+    rdfs:label """&amp;G3&amp;"""."</f>
+        <v>ifcp:51
     rdf:type crm:E1 ;
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;http://example.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:51 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "男鹿市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14 "男鹿のナマハゲ保存会" ;
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2018-12-31" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;
+    rdfs:label "男鹿市".</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="409.6">
       <c r="A4">
         <v>67</v>
       </c>
@@ -1960,45 +2188,55 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="4" t="str">
+      <c r="J4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
 &lt;http://example.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
-    crm:P7 "石川県" ;
-    crm:P7 "輪島市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P4 [
         crm:P116 "2018-01-02" ;
         crm:P115 "2018-01-02" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
+    rdfs:label "石川県".
+&lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt;
+    rdfs:label "輪島市".</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="409.6">
       <c r="A5">
         <v>67</v>
       </c>
@@ -2009,45 +2247,55 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="4" t="str">
+      <c r="J5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
 &lt;http://example.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
-    crm:P7 "石川県" ;
-    crm:P7 "鳳珠郡能登町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P4 [
         crm:P116 "2018-02-03" ;
         crm:P115 "2018-02-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
+    rdfs:label "石川県".
+&lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt;
+    rdfs:label "鳳珠郡能登町".</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="8">
         <v>109</v>
       </c>
@@ -2055,45 +2303,55 @@
         <v>154</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>175</v>
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="4" t="str">
+        <v>171</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:109
+        <v>ifcp:109
     rdf:type crm:E1 ;
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;http://example.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:109 ;
-    crm:P7 "鹿児島県" ;
-    crm:P7 "南九州市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
     crm:P67 &lt;https://kanko-minamisatsuma.jp/event/7547/&gt; ;
     crm:P4 [
         crm:P116 "2018-09-24" ;
         crm:P115 "2018-09-24" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
+    rdfs:label "鹿児島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt;
+    rdfs:label "南九州市".</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="409.6">
       <c r="A7">
         <v>110</v>
       </c>
@@ -2106,40 +2364,50 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="4" t="str">
+      <c r="J7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:110
+        <v>ifcp:110
     rdf:type crm:E1 ;
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;http://example.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:110 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "美郷町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14 "六郷町カマクラ保存会" ;
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-11" ;
         crm:P115 "2018-02-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt;
+    rdfs:label "美郷町".</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.6">
       <c r="A8">
         <v>124</v>
       </c>
@@ -2147,45 +2415,55 @@
         <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="4" t="str">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:124
+        <v>ifcp:124
     rdf:type crm:E1 ;
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;http://example.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:124 ;
-    crm:P7 "鹿児島県" ;
-    crm:P7 "龍郷町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
     crm:P67 &lt;http://amamishimbun.co.jp/2018/09/11/13136/&gt; ;
     crm:P4 [
         crm:P116 "2018-09-11" ;
         crm:P115 "2018-09-11" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
+    rdfs:label "鹿児島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt;
+    rdfs:label "龍郷町".</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="409.6">
       <c r="A9">
         <v>131</v>
       </c>
@@ -2198,40 +2476,50 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="4" t="str">
+      <c r="J9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:131
+        <v>ifcp:131
     rdf:type crm:E1 ;
     rdfs:label "猪俣の百八燈"@ja .
 &lt;http://example.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:131 ;
-    crm:P7 "埼玉県" ;
-    crm:P7 "美里町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14 "猪俣の百八灯保存会" ;
     crm:P67 &lt;https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/&gt; ;
     crm:P4 [
         crm:P116 "2018-08-15" ;
         crm:P115 "2018-08-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt;
+    rdfs:label "埼玉県".
+&lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt;
+    rdfs:label "美里町".</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="409.6">
       <c r="A10">
         <v>135</v>
       </c>
@@ -2239,45 +2527,55 @@
         <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="4" t="str">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:135
+        <v>ifcp:135
     rdf:type crm:E1 ;
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;http://example.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:135 ;
-    crm:P7 "長崎県" ;
-    crm:P7 "五島市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14 "下崎山町内会" ;
     crm:P67 &lt;https://www.nishinippon.co.jp/item/n/388880/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-21" ;
         crm:P115 "2018-01-21" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C42000-19700401&gt;
+    rdfs:label "長崎県".
+&lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt;
+    rdfs:label "五島市".</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="409.6">
       <c r="A11">
         <v>138</v>
       </c>
@@ -2285,45 +2583,55 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="4" t="str">
+      <c r="J11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:138
+        <v>ifcp:138
     rdf:type crm:E1 ;
     rdfs:label "青海の竹のからかい"@ja .
 &lt;http://example.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:138 ;
-    crm:P7 "新潟県" ;
-    crm:P7 "糸魚川市大字青海" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14 "青海竹のからかい保存会" ;
     crm:P67 &lt;https://www.itoigawa-kanko.net/trad/ominotakenokarakai/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
+    rdfs:label "新潟県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt;
+    rdfs:label "糸魚川市大字青海".</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="409.6">
       <c r="A12">
         <v>140</v>
       </c>
@@ -2331,45 +2639,55 @@
         <v>92</v>
       </c>
       <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="4" t="str">
+      <c r="J12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:140
+        <v>ifcp:140
     rdf:type crm:E1 ;
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;http://example.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:140 ;
-    crm:P7 "三重県" ;
-    crm:P7 "鳥羽市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14 "松尾地下，河内地下" ;
     crm:P67 &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
     crm:P4 [
         crm:P116 "2018-08-14" ;
         crm:P115 "2018-08-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
+    rdfs:label "三重県".
+&lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt;
+    rdfs:label "鳥羽市".</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="409.6">
       <c r="A13">
         <v>145</v>
       </c>
@@ -2377,42 +2695,52 @@
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="4" t="str">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:145
+        <v>ifcp:145
     rdf:type crm:E1 ;
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;http://example.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:145 ;
-    crm:P7 "山口県" ;
-    crm:P7 "岩国市周東町祖生" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "2018-08-15" ;
         crm:P115 "2018-08-23" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt;
+    rdfs:label "山口県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260&gt;
+    rdfs:label "岩国市周東町祖生".</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="409.6">
       <c r="A14">
         <v>156</v>
       </c>
@@ -2420,45 +2748,55 @@
         <v>71</v>
       </c>
       <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="4" t="str">
+      <c r="J14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:156
+        <v>ifcp:156
     rdf:type crm:E1 ;
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;http://example.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:156 ;
-    crm:P7 "長野県" ;
-    crm:P7 "下高井郡野沢温泉村" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14 "野沢温泉村野沢組" ;
     crm:P67 &lt;https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt;
+    rdfs:label "長野県".
+&lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt;
+    rdfs:label "下高井郡野沢温泉村".</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="409.6">
       <c r="A15">
         <v>158</v>
       </c>
@@ -2466,45 +2804,55 @@
         <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="4" t="str">
+        <v>179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:158
+        <v>ifcp:158
     rdf:type crm:E1 ;
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;http://example.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:158 ;
-    crm:P7 "沖縄県" ;
-    crm:P7 "宮古島市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
     crm:P67 &lt;https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/&gt; ;
     crm:P4 [
         crm:P116 "2018-10-08" ;
         crm:P115 "2018-10-09" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt;
+    rdfs:label "沖縄県".
+&lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt;
+    rdfs:label "宮古島市".</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="409.6">
       <c r="A16">
         <v>162</v>
       </c>
@@ -2512,45 +2860,55 @@
         <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K16" s="4" t="str">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:162
+        <v>ifcp:162
     rdf:type crm:E1 ;
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;http://example.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:162 ;
-    crm:P7 "福岡県" ;
-    crm:P7 "久留米市大善寺町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
     crm:P67 &lt;https://mainichi.jp/articles/20180108/k00/00m/040/121000c&gt; ;
     crm:P4 [
         crm:P116 "2018-01-07" ;
         crm:P115 "2018-01-07" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
+    rdfs:label "福岡県".
+&lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;
+    rdfs:label "久留米市大善寺町".</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.6">
       <c r="A17">
         <v>167</v>
       </c>
@@ -2558,42 +2916,52 @@
         <v>679</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="4" t="str">
+      <c r="J17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:167
+        <v>ifcp:167
     rdf:type crm:E1 ;
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;http://example.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:167 ;
-    crm:P7 "奈良県" ;
-    crm:P7 "五條市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt;
+    rdfs:label "奈良県".
+&lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt;
+    rdfs:label "五條市".</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.6">
       <c r="A18">
         <v>179</v>
       </c>
@@ -2604,42 +2972,52 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="4" t="str">
+      <c r="J18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:179
+        <v>ifcp:179
     rdf:type crm:E1 ;
     rdfs:label "大磯の左義長"@ja .
 &lt;http://example.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:179 ;
-    crm:P7 "神奈川県" ;
-    crm:P7 "大磯町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14 "大磯町左義長保存会" ;
     crm:P67 &lt;https://paddler-shonan.com/eye/event-sagicho/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-13" ;
         crm:P115 "2018-01-13" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt;
+    rdfs:label "神奈川県".
+&lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt;
+    rdfs:label "大磯町".</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.6">
       <c r="A19">
         <v>188</v>
       </c>
@@ -2653,39 +3031,49 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="4" t="str">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:188
+        <v>ifcp:188
     rdf:type crm:E1 ;
     rdfs:label "上郷の小正月行事"@ja .
 &lt;http://example.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:188 ;
-    crm:P7 "秋田県" ;
-    crm:P7 "にかほ市象潟町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/14018&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt;
+    rdfs:label "秋田県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt;
+    rdfs:label "にかほ市象潟町".</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.6">
       <c r="A20">
         <v>195</v>
       </c>
@@ -2702,39 +3090,49 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="4" t="str">
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;http://example.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
-    crm:P7 "山形県" ;
-    crm:P7 "遊佐町吹浦地区女鹿" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-03" ;
         crm:P115 "2018-01-03" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
+    rdfs:label "山形県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt;
+    rdfs:label "遊佐町吹浦地区女鹿".</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="409.6">
       <c r="A21">
         <v>195</v>
       </c>
@@ -2751,39 +3149,49 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="4" t="str">
+      <c r="K21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;http://example.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
-    crm:P7 "山形県" ;
-    crm:P7 "遊佐町吹浦地区滝ノ浦" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-01" ;
         crm:P115 "2018-01-01" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
+    rdfs:label "山形県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt;
+    rdfs:label "遊佐町吹浦地区滝ノ浦".</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="409.6">
       <c r="A22">
         <v>195</v>
       </c>
@@ -2800,39 +3208,49 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22" s="4" t="str">
+      <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;http://example.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
-    crm:P7 "山形県" ;
-    crm:P7 "遊佐町吹浦地区鳥崎" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700403&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-06" ;
         crm:P115 "2018-01-06" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700403&gt;
+    rdfs:label "山形県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt;
+    rdfs:label "遊佐町吹浦地区鳥崎".</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="409.6">
       <c r="A23">
         <v>204</v>
       </c>
@@ -2846,39 +3264,49 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="4" t="str">
+      <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:204
+        <v>ifcp:204
     rdf:type crm:E1 ;
     rdfs:label "米川の水かぶり"@ja .
 &lt;http://example.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:204 ;
-    crm:P7 "宮城県" ;
-    crm:P7 "登米市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14 "米川の水かぶり保存会" ;
     crm:P67 &lt;https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-07" ;
         crm:P115 "2018-02-07" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt;
+    rdfs:label "宮城県".
+&lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt;
+    rdfs:label "登米市".</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="409.6">
       <c r="A24">
         <v>218</v>
       </c>
@@ -2886,45 +3314,55 @@
         <v>760</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="4" t="str">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:218
+        <v>ifcp:218
     rdf:type crm:E1 ;
     rdfs:label "見島のカセドリ"@ja .
 &lt;http://example.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:218 ;
-    crm:P7 "佐賀県" ;
-    crm:P7 "佐賀市蓮池町見島" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14 "加勢鳥保存会" ;
     crm:P67 &lt;https://www.asobo-saga.jp/event/detail.html?id=2418&gt; ;
     crm:P4 [
         crm:P116 "2018-02-10" ;
         crm:P115 "2018-02-10" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt;
+    rdfs:label "佐賀県".
+&lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt;
+    rdfs:label "佐賀市蓮池町見島".</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="409.6">
       <c r="A25">
         <v>221</v>
       </c>
@@ -2938,39 +3376,49 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" s="4" t="str">
+      <c r="J25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:221
+        <v>ifcp:221
     rdf:type crm:E1 ;
     rdfs:label "吉浜のスネカ"@ja .
 &lt;http://example.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:221 ;
-    crm:P7 "岩手県" ;
-    crm:P7 "大船渡市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14 "吉浜スネカ保存会" ;
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt;
+    rdfs:label "岩手県".
+&lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt;
+    rdfs:label "大船渡市".</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="409.6">
       <c r="A26">
         <v>228</v>
       </c>
@@ -2978,45 +3426,55 @@
         <v>768</v>
       </c>
       <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K26" s="4" t="str">
+      <c r="J26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:228
+        <v>ifcp:228
     rdf:type crm:E1 ;
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;http://example.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:228 ;
-    crm:P7 "愛知県" ;
-    crm:P7 "西尾市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C23000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14 "鳥羽区" ;
     crm:P67 &lt;https://www.katch.co.jp/kinjo/arekore/arekore44.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-11" ;
         crm:P115 "2018-02-11" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/page/sac/C23000-19700401&gt;
+    rdfs:label "愛知県".
+&lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;
+    rdfs:label "西尾市".</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.6">
       <c r="A27">
         <v>236</v>
       </c>
@@ -3024,45 +3482,55 @@
         <v>800</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" t="s">
-        <v>150</v>
-      </c>
-      <c r="K27" s="4" t="str">
+        <v>187</v>
+      </c>
+      <c r="H27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:236
+        <v>ifcp:236
     rdf:type crm:E1 ;
     rdfs:label "五十猛のグロ"@ja .
 &lt;http://example.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:236 ;
-    crm:P7 "島根県" ;
-    crm:P7 "大田市五十猛町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14 "大浦グロ保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/22712&gt; ;
     crm:P4 [
         crm:P116 "2018-01-11" ;
         crm:P115 "2018-01-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt;
+    rdfs:label "島根県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt;
+    rdfs:label "大田市五十猛町".</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="409.6">
       <c r="A28">
         <v>240</v>
       </c>
@@ -3076,39 +3544,49 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" t="s">
+        <v>250</v>
+      </c>
+      <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L28" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" t="s">
-        <v>152</v>
-      </c>
-      <c r="K28" s="4" t="str">
+      <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:240
+        <v>ifcp:240
     rdf:type crm:E1 ;
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;http://example.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:240 ;
-    crm:P7 "宮城県" ;
-    crm:P7 "東松島市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14 "えんずのわり保存会" ;
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P4 [
         crm:P116 "2018-01-11" ;
         crm:P115 "2018-01-16" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt;
+    rdfs:label "宮城県".
+&lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt;
+    rdfs:label "東松島市".</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.6">
       <c r="A29">
         <v>245</v>
       </c>
@@ -3116,45 +3594,55 @@
         <v>813</v>
       </c>
       <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" t="s">
+        <v>252</v>
+      </c>
+      <c r="I29" t="s">
         <v>51</v>
       </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" s="4" t="str">
+      <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:245
+        <v>ifcp:245
     rdf:type crm:E1 ;
     rdfs:label "東光寺の鬼会"@ja .
 &lt;http://example.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:245 ;
-    crm:P7 "兵庫県" ;
-    crm:P7 "加西市上万願寺392" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14 "東光寺追儺式及び田遊び保存会" ;
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-01-08" ;
         crm:P115 "2018-01-08" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt;
+    rdfs:label "兵庫県".
+&lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt;
+    rdfs:label "加西市上万願寺392".</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="409.6">
       <c r="A30">
         <v>250</v>
       </c>
@@ -3162,45 +3650,55 @@
         <v>824</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" s="4" t="str">
+        <v>189</v>
+      </c>
+      <c r="H30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:250
+        <v>ifcp:250
     rdf:type crm:E1 ;
     rdfs:label "酒津のトンドウ"@ja .
 &lt;http://example.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:250 ;
-    crm:P7 "鳥取県" ;
-    crm:P7 "鳥取市気高町酒津" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14 "酒津とんど祭り保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/20962&gt; ;
     crm:P4 [
         crm:P116 "2018-01-13" ;
         crm:P115 "2018-01-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C31000-19700401&gt;
+    rdfs:label "鳥取県".
+&lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt;
+    rdfs:label "鳥取市気高町酒津".</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.6">
       <c r="A31">
         <v>253</v>
       </c>
@@ -3214,39 +3712,49 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" t="s">
-        <v>156</v>
-      </c>
-      <c r="K31" s="4" t="str">
+        <v>190</v>
+      </c>
+      <c r="H31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:253
+        <v>ifcp:253
     rdf:type crm:E1 ;
     rdfs:label "三島のサイノカミ"@ja .
 &lt;http://example.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:253 ;
-    crm:P7 "福島県" ;
-    crm:P7 "三島町" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14 "三島町年中行事保存会" ;
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt;
+    rdfs:label "福島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt;
+    rdfs:label "三島町".</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="409.6">
       <c r="A32">
         <v>264</v>
       </c>
@@ -3254,45 +3762,55 @@
         <v>857</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" s="4" t="str">
+        <v>192</v>
+      </c>
+      <c r="H32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:264
+        <v>ifcp:264
     rdf:type crm:E1 ;
     rdfs:label "阿月の神明祭"@ja .
 &lt;http://example.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:264 ;
-    crm:P7 "山口県" ;
-    crm:P7 "柳井市阿月" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14 "神明祭顕彰会" ;
     crm:P67 &lt;http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ&gt; ;
     crm:P4 [
         crm:P116 "2018-02-11" ;
         crm:P115 "2018-02-11" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt;
+    rdfs:label "山口県".
+&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100&gt;
+    rdfs:label "柳井市阿月".</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="409.6">
       <c r="A33">
         <v>266</v>
       </c>
@@ -3300,45 +3818,55 @@
         <v>872</v>
       </c>
       <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" t="s">
         <v>36</v>
       </c>
-      <c r="F33" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" t="s">
-        <v>158</v>
-      </c>
-      <c r="K33" s="4" t="str">
+      <c r="J33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:266
+        <v>ifcp:266
     rdf:type crm:E1 ;
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;http://example.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:266 ;
-    crm:P7 "富山県" ;
-    crm:P7 "入善町上野" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14 "塞の神まつり保存会" ;
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
+    rdfs:label "富山県".
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt;
+    rdfs:label "入善町上野".</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="409.6">
       <c r="A34">
         <v>269</v>
       </c>
@@ -3352,39 +3880,49 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" t="s">
+        <v>257</v>
+      </c>
+      <c r="H34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I34" t="s">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="4" t="str">
+      <c r="J34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" t="s">
+        <v>157</v>
+      </c>
+      <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:269
+        <v>ifcp:269
     rdf:type crm:E1 ;
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;http://example.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:269 ;
-    crm:P7 "神奈川県" ;
-    crm:P7 "三浦市初声町三戸" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14 "三戸お精霊流し保存会" ;
     crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-16" ;
         crm:P115 "2018-08-16" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt;
+    rdfs:label "神奈川県".
+&lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt;
+    rdfs:label "三浦市初声町三戸".</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="409.6">
       <c r="A35">
         <v>277</v>
       </c>
@@ -3392,45 +3930,55 @@
         <v>883</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J35" t="s">
-        <v>162</v>
-      </c>
-      <c r="K35" s="4" t="str">
+        <v>193</v>
+      </c>
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:277
+        <v>ifcp:277
     rdf:type crm:E1 ;
     rdfs:label "江包・大西の御綱"@ja .
 &lt;http://example.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:277 ;
-    crm:P7 "奈良県" ;
-    crm:P7 "桜井市" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
     crm:P67 &lt;http://www.pref.nara.jp/17619.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-02-09" ;
         crm:P115 "2018-02-11" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt;
+    rdfs:label "奈良県".
+&lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;
+    rdfs:label "桜井市".</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="409.6">
       <c r="A36">
         <v>278</v>
       </c>
@@ -3438,45 +3986,55 @@
         <v>885</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" t="s">
+        <v>261</v>
+      </c>
+      <c r="I36" t="s">
         <v>67</v>
       </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" t="s">
-        <v>163</v>
-      </c>
-      <c r="K36" s="4" t="str">
+      <c r="J36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:278
+        <v>ifcp:278
     rdf:type crm:E1 ;
     rdfs:label "地福のトイトイ"@ja .
 &lt;http://example.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:278 ;
-    crm:P7 "山口県" ;
-    crm:P7 "山口市阿東" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14 "地福といとい保存会" ;
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt;
+    rdfs:label "山口県".
+&lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt;
+    rdfs:label "山口市阿東".</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="409.6">
       <c r="A37">
         <v>298</v>
       </c>
@@ -3484,45 +4042,55 @@
         <v>945</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" t="s">
+        <v>260</v>
+      </c>
+      <c r="I37" t="s">
         <v>82</v>
       </c>
-      <c r="F37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J37" t="s">
-        <v>165</v>
-      </c>
-      <c r="K37" s="4" t="str">
+      <c r="J37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L37" t="s">
+        <v>162</v>
+      </c>
+      <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:298
+        <v>ifcp:298
     rdf:type crm:E1 ;
     rdfs:label "悪石島のボゼ"@ja .
 &lt;http://example.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:298 ;
-    crm:P7 "鹿児島県" ;
-    crm:P7 "十島村悪石島" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14 "悪石島の盆踊り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/DA3S13652403.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-26" ;
         crm:P115 "2018-08-26" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="409.6">
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
+    rdfs:label "鹿児島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt;
+    rdfs:label "十島村悪石島".</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="8" customFormat="1" ht="409.6">
       <c r="A38" s="8">
         <v>299</v>
       </c>
@@ -3530,116 +4098,130 @@
         <v>944</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>201</v>
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>197</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K38" s="4" t="str">
+        <v>196</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:299
+        <v>ifcp:299
     rdf:type crm:E1 ;
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;http://example.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:299 ;
-    crm:P7 "鹿児島県" ;
-    crm:P7 "三島村硫黄島" ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-10" ;
         crm:P115 "2018-09-11" 
-    ] . </v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56" s="4"/>
+    ] . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
+    rdfs:label "鹿児島県".
+&lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt;
+    rdfs:label "三島村硫黄島".</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="13:13">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="13:13">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="13:13">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="13:13">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="13:13">
+      <c r="M56" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E56" xr:uid="{A989E8B0-0D9B-0342-BDF8-B3D467B87912}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{D81543B9-AB17-6244-909F-9AD1F807A46A}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{D1B7D269-3CB5-FF4B-BB2E-ABC2E286DB9E}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{A19615CF-3FF1-3645-B992-A63D6A6D7596}"/>
-    <hyperlink ref="J7" r:id="rId4" xr:uid="{DCD7E471-C0C6-5246-8E78-5694B663A904}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{8F7EA0EC-B47F-2045-90D8-F2276FB4D8C7}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{D74385BF-588D-474D-BA65-D698FB5E6D73}"/>
-    <hyperlink ref="J10" r:id="rId7" xr:uid="{8BB0C2C1-1135-6C46-A1BD-DC339C2E18FF}"/>
-    <hyperlink ref="J20" r:id="rId8" xr:uid="{4B079B7C-6A98-834D-960A-AC3E0024FE15}"/>
-    <hyperlink ref="J26" r:id="rId9" xr:uid="{9F8024D0-E4CA-8348-A038-FDDCED6D637A}"/>
-    <hyperlink ref="J29" r:id="rId10" xr:uid="{F742D4E8-8E49-3C45-AD08-4E8CA8951B27}"/>
-    <hyperlink ref="J38" r:id="rId11" xr:uid="{D4725498-91E1-EE40-88E1-548A6413A4CB}"/>
-    <hyperlink ref="J11" r:id="rId12" xr:uid="{4AA7C54B-F5DB-D443-8937-8DAB72E04127}"/>
-    <hyperlink ref="J12" r:id="rId13" xr:uid="{719B0C73-B86D-9E49-83A3-B4ECBE542876}"/>
-    <hyperlink ref="J14" r:id="rId14" xr:uid="{8C181BC3-CD87-DC42-B61C-E668A625B5E5}"/>
-    <hyperlink ref="J15" r:id="rId15" xr:uid="{97F6D173-24C9-4245-BBF4-8B03D5CDBBB5}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D81543B9-AB17-6244-909F-9AD1F807A46A}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{D1B7D269-3CB5-FF4B-BB2E-ABC2E286DB9E}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{A19615CF-3FF1-3645-B992-A63D6A6D7596}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{DCD7E471-C0C6-5246-8E78-5694B663A904}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{8F7EA0EC-B47F-2045-90D8-F2276FB4D8C7}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{D74385BF-588D-474D-BA65-D698FB5E6D73}"/>
+    <hyperlink ref="L10" r:id="rId7" xr:uid="{8BB0C2C1-1135-6C46-A1BD-DC339C2E18FF}"/>
+    <hyperlink ref="L20" r:id="rId8" xr:uid="{4B079B7C-6A98-834D-960A-AC3E0024FE15}"/>
+    <hyperlink ref="L26" r:id="rId9" xr:uid="{9F8024D0-E4CA-8348-A038-FDDCED6D637A}"/>
+    <hyperlink ref="L29" r:id="rId10" xr:uid="{F742D4E8-8E49-3C45-AD08-4E8CA8951B27}"/>
+    <hyperlink ref="L38" r:id="rId11" xr:uid="{D4725498-91E1-EE40-88E1-548A6413A4CB}"/>
+    <hyperlink ref="L11" r:id="rId12" xr:uid="{4AA7C54B-F5DB-D443-8937-8DAB72E04127}"/>
+    <hyperlink ref="L12" r:id="rId13" xr:uid="{719B0C73-B86D-9E49-83A3-B4ECBE542876}"/>
+    <hyperlink ref="L14" r:id="rId14" xr:uid="{8C181BC3-CD87-DC42-B61C-E668A625B5E5}"/>
+    <hyperlink ref="L15" r:id="rId15" xr:uid="{97F6D173-24C9-4245-BBF4-8B03D5CDBBB5}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{3B392B49-89D1-6E42-8236-ECC196376D09}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{D676ABD2-196A-B841-AAEF-3649BF254333}"/>
+    <hyperlink ref="H22" r:id="rId18" display="http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240" xr:uid="{5C7D3353-076C-B74C-8C5F-90C8644B618A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E35FDA6-34DB-4349-900B-172F722BCB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428DA6F5-57BB-4042-AA85-AEC3552D3E9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,622 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>"@base &lt;http://example.org/ifcp/&gt; .
+    <t>参照URL</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.namahage-oga.akita.jp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>輪島市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鳳珠郡能登町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-02-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.hot-ishikawa.jp/event/4517</t>
+  </si>
+  <si>
+    <t>https://www.hot-ishikawa.jp/event/4517</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.town.misato.akita.jp/kamakura/2574.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-02-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-02-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://kanko-minamisatsuma.jp/event/7547/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://amamishimbun.co.jp/2018/09/11/13136/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-09-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/</t>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.nishinippon.co.jp/item/n/388880/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-08-23</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://mainichi.jp/articles/20180108/k00/00m/040/121000c</t>
+  </si>
+  <si>
+    <t>2018-01-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://paddler-shonan.com/eye/event-sagicho/</t>
+  </si>
+  <si>
+    <t>https://matsuri-no-hi.com/matsuri/14018</t>
+  </si>
+  <si>
+    <t>遊佐町吹浦地区女鹿</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>遊佐町吹浦地区滝ノ浦</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>遊佐町吹浦地区鳥崎</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html</t>
+  </si>
+  <si>
+    <t>http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-02-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html</t>
+  </si>
+  <si>
+    <t>2018-02-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asobo-saga.jp/event/detail.html?id=2418</t>
+  </si>
+  <si>
+    <t>https://ofunato.jp/Summary/info/81</t>
+  </si>
+  <si>
+    <t>https://www.katch.co.jp/kinjo/arekore/arekore44.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-01-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://matsuri-no-hi.com/matsuri/22712</t>
+  </si>
+  <si>
+    <t>2018-01-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://matsuri-no-hi.com/matsuri/20962</t>
+  </si>
+  <si>
+    <t>http://www.mishima-kankou.net/20180112/</t>
+  </si>
+  <si>
+    <t>http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ</t>
+  </si>
+  <si>
+    <t>https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html</t>
+  </si>
+  <si>
+    <t>2018-08-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html</t>
+  </si>
+  <si>
+    <t>2018-02-09</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.pref.nara.jp/17619.htm</t>
+  </si>
+  <si>
+    <t>https://www.city.yamaguchi.lg.jp/site/movie/19833.html</t>
+  </si>
+  <si>
+    <t>2018-08-26</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/DA3S13652403.html</t>
+  </si>
+  <si>
+    <t>https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.itoigawa-kanko.net/trad/ominotakenokarakai/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>subID</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>男鹿市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>南九州市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>美郷町</t>
+    <rPh sb="0" eb="3">
+      <t>ミサトチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>龍郷町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>美里町</t>
+    <rPh sb="0" eb="3">
+      <t>ミサトマチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>五島市</t>
+    <rPh sb="0" eb="3">
+      <t>ゴトウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>糸魚川市大字青海</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鳥羽市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岩国市周東町祖生</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>宮古島市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>五條市</t>
+    <rPh sb="0" eb="1">
+      <t>ゴジョウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大磯町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>にかほ市象潟町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>登米市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>佐賀市蓮池町見島</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大船渡市</t>
+    <rPh sb="0" eb="1">
+      <t>オオフナトシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>西尾市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大田市五十猛町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東松島市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鳥取市気高町酒津</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>三島町</t>
+    <rPh sb="0" eb="3">
+      <t>ミシママチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入善町上野</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>柳井市阿月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>桜井市</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>山口市阿東</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>十島村悪石島</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>三島村硫黄島</t>
+    <rPh sb="0" eb="1">
+      <t>ミシマムラ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46000-19700401</t>
+  </si>
+  <si>
+    <t>都道府県URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>所在地URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C05000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C23000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C04000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C35000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C15000-19700401</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C42000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C31000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28000-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05206-20050322</t>
+  </si>
+  <si>
+    <t>薩摩川内市</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46215-20041012</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17204-20060201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C17463-20050301</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46223-20071201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05434-20170222</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46527-19750210</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C11381-19890301</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C42211-20040801</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C24211-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260</t>
+  </si>
+  <si>
+    <t>下高井郡野沢温泉村</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C20563-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C47214-20051001</t>
+  </si>
+  <si>
+    <t>久留米市大善寺町</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40203-20080401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29207-20050925</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14341-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700403</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C04212-20061001</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C41201-20140401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C03203-20011115</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23213-20110401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C04214-20200201</t>
+  </si>
+  <si>
+    <t>加西市上万願寺392</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C28220-19941201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C31341-20041101</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C07444-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350</t>
+  </si>
+  <si>
+    <t>三浦市初声町三戸</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C14210-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29206-19700401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46522-19730401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C35203-20100116</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46521-19730401</t>
+  </si>
+  <si>
+    <t>"@base &lt;http://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
@@ -347,621 +962,6 @@
 @prefix ifcp: &lt;http://example.org/ifcp/&gt; .
 @prefix cate: &lt;http://example.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>参照URL</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.namahage-oga.akita.jp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>輪島市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鳳珠郡能登町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-02-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.hot-ishikawa.jp/event/4517</t>
-  </si>
-  <si>
-    <t>https://www.hot-ishikawa.jp/event/4517</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.town.misato.akita.jp/kamakura/2574.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-02-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-02-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://kanko-minamisatsuma.jp/event/7547/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-09-24</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://amamishimbun.co.jp/2018/09/11/13136/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-09-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/</t>
-  </si>
-  <si>
-    <t>2018-08-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.nishinippon.co.jp/item/n/388880/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-21</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-23</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-08</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-10-09</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://mainichi.jp/articles/20180108/k00/00m/040/121000c</t>
-  </si>
-  <si>
-    <t>2018-01-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://paddler-shonan.com/eye/event-sagicho/</t>
-  </si>
-  <si>
-    <t>https://matsuri-no-hi.com/matsuri/14018</t>
-  </si>
-  <si>
-    <t>遊佐町吹浦地区女鹿</t>
-    <rPh sb="0" eb="1">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>遊佐町吹浦地区滝ノ浦</t>
-    <rPh sb="0" eb="1">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>遊佐町吹浦地区鳥崎</t>
-    <rPh sb="0" eb="1">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html</t>
-  </si>
-  <si>
-    <t>http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-02-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html</t>
-  </si>
-  <si>
-    <t>2018-02-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asobo-saga.jp/event/detail.html?id=2418</t>
-  </si>
-  <si>
-    <t>https://ofunato.jp/Summary/info/81</t>
-  </si>
-  <si>
-    <t>https://www.katch.co.jp/kinjo/arekore/arekore44.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-01-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://matsuri-no-hi.com/matsuri/22712</t>
-  </si>
-  <si>
-    <t>2018-01-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899</t>
-  </si>
-  <si>
-    <t>2018-01-08</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://matsuri-no-hi.com/matsuri/20962</t>
-  </si>
-  <si>
-    <t>http://www.mishima-kankou.net/20180112/</t>
-  </si>
-  <si>
-    <t>http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ</t>
-  </si>
-  <si>
-    <t>https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html</t>
-  </si>
-  <si>
-    <t>2018-08-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html</t>
-  </si>
-  <si>
-    <t>2018-02-09</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.pref.nara.jp/17619.htm</t>
-  </si>
-  <si>
-    <t>https://www.city.yamaguchi.lg.jp/site/movie/19833.html</t>
-  </si>
-  <si>
-    <t>2018-08-26</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/DA3S13652403.html</t>
-  </si>
-  <si>
-    <t>https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-09-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.itoigawa-kanko.net/trad/ominotakenokarakai/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>subID</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>男鹿市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>南九州市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>美郷町</t>
-    <rPh sb="0" eb="3">
-      <t>ミサトチョウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>龍郷町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>美里町</t>
-    <rPh sb="0" eb="3">
-      <t>ミサトマチ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>五島市</t>
-    <rPh sb="0" eb="3">
-      <t>ゴトウシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>糸魚川市大字青海</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鳥羽市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>岩国市周東町祖生</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>宮古島市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>五條市</t>
-    <rPh sb="0" eb="1">
-      <t>ゴジョウシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大磯町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>にかほ市象潟町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>登米市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>佐賀市蓮池町見島</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大船渡市</t>
-    <rPh sb="0" eb="1">
-      <t>オオフナトシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>西尾市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大田市五十猛町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>東松島市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鳥取市気高町酒津</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>三島町</t>
-    <rPh sb="0" eb="3">
-      <t>ミシママチ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>入善町上野</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>柳井市阿月</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>桜井市</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>山口市阿東</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>十島村悪石島</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>三島村硫黄島</t>
-    <rPh sb="0" eb="1">
-      <t>ミシマムラ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46000-19700401</t>
-  </si>
-  <si>
-    <t>都道府県URI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>所在地URI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C05000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C23000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C47000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C04000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C41000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C11000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C24000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C35000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C15000-19700401</t>
-  </si>
-  <si>
-    <t>神奈川県</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C14000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C17000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C42000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C20000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C31000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C29000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C07000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C28000-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05206-20050322</t>
-  </si>
-  <si>
-    <t>薩摩川内市</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46215-20041012</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C17204-20060201</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C17463-20050301</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46223-20071201</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05434-20170222</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46527-19750210</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C11381-19890301</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C42211-20040801</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C24211-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260</t>
-  </si>
-  <si>
-    <t>下高井郡野沢温泉村</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C20563-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C47214-20051001</t>
-  </si>
-  <si>
-    <t>久留米市大善寺町</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40203-20080401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C29207-20050925</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C14341-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C06000-19700403</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C04212-20061001</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C41201-20140401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C03203-20011115</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23213-20110401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C04214-20200201</t>
-  </si>
-  <si>
-    <t>加西市上万願寺392</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C28220-19941201</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C31341-20041101</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C07444-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350</t>
-  </si>
-  <si>
-    <t>三浦市初声町三戸</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C14210-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C29206-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46522-19730401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C35203-20100116</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46521-19730401</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1995,7 +1995,7 @@
         <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2025,10 +2025,10 @@
         <v>96</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="409.6">
@@ -2045,25 +2045,25 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
         <v>222</v>
-      </c>
-      <c r="H2" t="s">
-        <v>223</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
@@ -2118,25 +2118,25 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M38" si="0">"ifcp:"&amp;A3&amp;"
@@ -2194,25 +2194,25 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2253,25 +2253,25 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2309,25 +2309,25 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2365,25 +2365,25 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2421,25 +2421,25 @@
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2477,25 +2477,25 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2533,25 +2533,25 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2589,25 +2589,25 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2645,25 +2645,25 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2701,22 +2701,22 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2754,25 +2754,25 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" t="s">
         <v>234</v>
-      </c>
-      <c r="H14" t="s">
-        <v>235</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2810,25 +2810,25 @@
         <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L15" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2866,25 +2866,25 @@
         <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>238</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
         <v>126</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" t="s">
-        <v>127</v>
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2922,22 +2922,22 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I17" t="s">
         <v>56</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2972,28 +2972,28 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" t="s">
         <v>210</v>
       </c>
-      <c r="F18" t="s">
-        <v>211</v>
-      </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3031,25 +3031,25 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3090,25 +3090,25 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I20" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3149,25 +3149,25 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I21" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3208,25 +3208,25 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" t="s">
         <v>137</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" t="s">
-        <v>138</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3264,25 +3264,25 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" t="s">
         <v>140</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3320,25 +3320,25 @@
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I24" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" t="s">
-        <v>143</v>
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3376,25 +3376,25 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3432,25 +3432,25 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
         <v>45</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3488,25 +3488,25 @@
         <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" t="s">
         <v>146</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L27" t="s">
-        <v>147</v>
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3544,25 +3544,25 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s">
         <v>148</v>
-      </c>
-      <c r="L28" t="s">
-        <v>149</v>
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3600,25 +3600,25 @@
         <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" t="s">
         <v>251</v>
-      </c>
-      <c r="H29" t="s">
-        <v>252</v>
       </c>
       <c r="I29" t="s">
         <v>51</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3712,25 +3712,25 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I31" t="s">
         <v>98</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3768,25 +3768,25 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I32" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3824,25 +3824,25 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3880,25 +3880,25 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" t="s">
         <v>257</v>
-      </c>
-      <c r="H34" t="s">
-        <v>258</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" t="s">
         <v>156</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" t="s">
-        <v>157</v>
       </c>
       <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3936,25 +3936,25 @@
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I35" t="s">
         <v>54</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" t="s">
         <v>158</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L35" t="s">
-        <v>159</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3992,25 +3992,25 @@
         <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I36" t="s">
         <v>67</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4048,25 +4048,25 @@
         <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" t="s">
         <v>161</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L37" t="s">
-        <v>162</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -4104,25 +4104,25 @@
         <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>85</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428DA6F5-57BB-4042-AA85-AEC3552D3E9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C230AE-37E4-2643-A86B-B800CEEDBA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,13 +954,13 @@
     <t>http://data.e-stat.go.jp/lod/sac/C46521-19730401</t>
   </si>
   <si>
-    <t>"@base &lt;http://w3id.org/ifcp/&gt; .
+    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
-@prefix ifcp: &lt;http://example.org/ifcp/&gt; .
-@prefix cate: &lt;http://example.org/ifcp/category/&gt; ."</t>
+@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
+@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1981,8 +1981,8 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2069,7 +2069,7 @@
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D2&amp;"""@ja .
-&lt;http://example.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
     crm:P7 &lt;"&amp;F2&amp;"&gt; ;
@@ -2087,7 +2087,7 @@
         <v>ifcp:49
     rdf:type crm:E1 ;
     rdfs:label "甑島のトシドン"@ja .
-&lt;http://example.org/ifcp/49/held/2018/&gt;
+&lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:49 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
@@ -2142,7 +2142,7 @@
         <f t="shared" ref="M3:M38" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;D3&amp;"""@ja .
-&lt;http://example.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
     crm:P7 &lt;"&amp;F3&amp;"&gt; ;
@@ -2160,7 +2160,7 @@
         <v>ifcp:51
     rdf:type crm:E1 ;
     rdfs:label "男鹿のナマハゲ"@ja .
-&lt;http://example.org/ifcp/51/held/2018/&gt;
+&lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:51 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
@@ -2219,7 +2219,7 @@
         <v>ifcp:67
     rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
-&lt;http://example.org/ifcp/67/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
@@ -2278,7 +2278,7 @@
         <v>ifcp:67
     rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
-&lt;http://example.org/ifcp/67/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
@@ -2334,7 +2334,7 @@
         <v>ifcp:109
     rdf:type crm:E1 ;
     rdfs:label "南薩摩の十五夜行事"@ja .
-&lt;http://example.org/ifcp/109/held/2018/&gt;
+&lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:109 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
@@ -2390,7 +2390,7 @@
         <v>ifcp:110
     rdf:type crm:E1 ;
     rdfs:label "六郷のカマクラ行事"@ja .
-&lt;http://example.org/ifcp/110/held/2018/&gt;
+&lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:110 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
@@ -2446,7 +2446,7 @@
         <v>ifcp:124
     rdf:type crm:E1 ;
     rdfs:label "秋名のアラセツ行事"@ja .
-&lt;http://example.org/ifcp/124/held/2018/&gt;
+&lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:124 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
@@ -2502,7 +2502,7 @@
         <v>ifcp:131
     rdf:type crm:E1 ;
     rdfs:label "猪俣の百八燈"@ja .
-&lt;http://example.org/ifcp/131/held/2018/&gt;
+&lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:131 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
@@ -2558,7 +2558,7 @@
         <v>ifcp:135
     rdf:type crm:E1 ;
     rdfs:label "下崎山のヘトマト行事"@ja .
-&lt;http://example.org/ifcp/135/held/2018/&gt;
+&lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:135 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42000-19700401&gt; ;
@@ -2614,7 +2614,7 @@
         <v>ifcp:138
     rdf:type crm:E1 ;
     rdfs:label "青海の竹のからかい"@ja .
-&lt;http://example.org/ifcp/138/held/2018/&gt;
+&lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:138 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
@@ -2670,7 +2670,7 @@
         <v>ifcp:140
     rdf:type crm:E1 ;
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
-&lt;http://example.org/ifcp/140/held/2018/&gt;
+&lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:140 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
@@ -2723,7 +2723,7 @@
         <v>ifcp:145
     rdf:type crm:E1 ;
     rdfs:label "周防祖生の柱松行事"@ja .
-&lt;http://example.org/ifcp/145/held/2018/&gt;
+&lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:145 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
@@ -2779,7 +2779,7 @@
         <v>ifcp:156
     rdf:type crm:E1 ;
     rdfs:label "野沢温泉の道祖神祭り"@ja .
-&lt;http://example.org/ifcp/156/held/2018/&gt;
+&lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:156 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt; ;
@@ -2835,7 +2835,7 @@
         <v>ifcp:158
     rdf:type crm:E1 ;
     rdfs:label "宮古島のパーントゥ"@ja .
-&lt;http://example.org/ifcp/158/held/2018/&gt;
+&lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:158 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt; ;
@@ -2891,7 +2891,7 @@
         <v>ifcp:162
     rdf:type crm:E1 ;
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
-&lt;http://example.org/ifcp/162/held/2018/&gt;
+&lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:162 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
@@ -2944,7 +2944,7 @@
         <v>ifcp:167
     rdf:type crm:E1 ;
     rdfs:label "陀々堂の鬼はしり"@ja .
-&lt;http://example.org/ifcp/167/held/2018/&gt;
+&lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:167 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
@@ -3000,7 +3000,7 @@
         <v>ifcp:179
     rdf:type crm:E1 ;
     rdfs:label "大磯の左義長"@ja .
-&lt;http://example.org/ifcp/179/held/2018/&gt;
+&lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:179 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
@@ -3056,7 +3056,7 @@
         <v>ifcp:188
     rdf:type crm:E1 ;
     rdfs:label "上郷の小正月行事"@ja .
-&lt;http://example.org/ifcp/188/held/2018/&gt;
+&lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:188 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
@@ -3115,7 +3115,7 @@
         <v>ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;http://example.org/ifcp/195/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
@@ -3174,7 +3174,7 @@
         <v>ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;http://example.org/ifcp/195/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
@@ -3233,7 +3233,7 @@
         <v>ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;http://example.org/ifcp/195/held/2018/3&gt;
+&lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700403&gt; ;
@@ -3289,7 +3289,7 @@
         <v>ifcp:204
     rdf:type crm:E1 ;
     rdfs:label "米川の水かぶり"@ja .
-&lt;http://example.org/ifcp/204/held/2018/&gt;
+&lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:204 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
@@ -3345,7 +3345,7 @@
         <v>ifcp:218
     rdf:type crm:E1 ;
     rdfs:label "見島のカセドリ"@ja .
-&lt;http://example.org/ifcp/218/held/2018/&gt;
+&lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:218 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt; ;
@@ -3401,7 +3401,7 @@
         <v>ifcp:221
     rdf:type crm:E1 ;
     rdfs:label "吉浜のスネカ"@ja .
-&lt;http://example.org/ifcp/221/held/2018/&gt;
+&lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:221 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
@@ -3457,7 +3457,7 @@
         <v>ifcp:228
     rdf:type crm:E1 ;
     rdfs:label "鳥羽の火祭り"@ja .
-&lt;http://example.org/ifcp/228/held/2018/&gt;
+&lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:228 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C23000-19700401&gt; ;
@@ -3513,7 +3513,7 @@
         <v>ifcp:236
     rdf:type crm:E1 ;
     rdfs:label "五十猛のグロ"@ja .
-&lt;http://example.org/ifcp/236/held/2018/&gt;
+&lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:236 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
@@ -3569,7 +3569,7 @@
         <v>ifcp:240
     rdf:type crm:E1 ;
     rdfs:label "月浜のえんずのわり"@ja .
-&lt;http://example.org/ifcp/240/held/2018/&gt;
+&lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:240 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
@@ -3625,7 +3625,7 @@
         <v>ifcp:245
     rdf:type crm:E1 ;
     rdfs:label "東光寺の鬼会"@ja .
-&lt;http://example.org/ifcp/245/held/2018/&gt;
+&lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:245 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt; ;
@@ -3681,7 +3681,7 @@
         <v>ifcp:250
     rdf:type crm:E1 ;
     rdfs:label "酒津のトンドウ"@ja .
-&lt;http://example.org/ifcp/250/held/2018/&gt;
+&lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:250 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31000-19700401&gt; ;
@@ -3737,7 +3737,7 @@
         <v>ifcp:253
     rdf:type crm:E1 ;
     rdfs:label "三島のサイノカミ"@ja .
-&lt;http://example.org/ifcp/253/held/2018/&gt;
+&lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:253 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
@@ -3793,7 +3793,7 @@
         <v>ifcp:264
     rdf:type crm:E1 ;
     rdfs:label "阿月の神明祭"@ja .
-&lt;http://example.org/ifcp/264/held/2018/&gt;
+&lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:264 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
@@ -3849,7 +3849,7 @@
         <v>ifcp:266
     rdf:type crm:E1 ;
     rdfs:label "邑町のサイノカミ"@ja .
-&lt;http://example.org/ifcp/266/held/2018/&gt;
+&lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:266 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
@@ -3905,7 +3905,7 @@
         <v>ifcp:269
     rdf:type crm:E1 ;
     rdfs:label "三戸のオショロ流し"@ja .
-&lt;http://example.org/ifcp/269/held/2018/&gt;
+&lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:269 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
@@ -3961,7 +3961,7 @@
         <v>ifcp:277
     rdf:type crm:E1 ;
     rdfs:label "江包・大西の御綱"@ja .
-&lt;http://example.org/ifcp/277/held/2018/&gt;
+&lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:277 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
@@ -4017,7 +4017,7 @@
         <v>ifcp:278
     rdf:type crm:E1 ;
     rdfs:label "地福のトイトイ"@ja .
-&lt;http://example.org/ifcp/278/held/2018/&gt;
+&lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:278 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
@@ -4073,7 +4073,7 @@
         <v>ifcp:298
     rdf:type crm:E1 ;
     rdfs:label "悪石島のボゼ"@ja .
-&lt;http://example.org/ifcp/298/held/2018/&gt;
+&lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:298 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
@@ -4129,7 +4129,7 @@
         <v>ifcp:299
     rdf:type crm:E1 ;
     rdfs:label "薩摩硫黄島のメンドン"@ja .
-&lt;http://example.org/ifcp/299/held/2018/&gt;
+&lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:299 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C230AE-37E4-2643-A86B-B800CEEDBA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F7603-CE53-A344-A054-41C47542A3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,9 +859,6 @@
     <t>http://data.e-stat.go.jp/lod/sac/C24211-19700401</t>
   </si>
   <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260</t>
-  </si>
-  <si>
     <t>下高井郡野沢温泉村</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -927,9 +924,6 @@
   </si>
   <si>
     <t>http://data.e-stat.go.jp/lod/sac/C07444-19700401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100</t>
   </si>
   <si>
     <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350</t>
@@ -961,6 +955,14 @@
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
 @prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
 @prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1981,7 +1983,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -2028,7 +2030,7 @@
         <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="409.6">
@@ -2072,36 +2074,26 @@
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;F2&amp;"&gt; ;
     crm:P7 &lt;"&amp;H2&amp;"&gt; ;
     crm:P14 """&amp;I2&amp;""" ;
     crm:P67 &lt;"&amp;L2&amp;"&gt; ;
     crm:P4 [
         crm:P116 """&amp;J2&amp;""" ;
         crm:P115 """&amp;K2&amp;""" 
-    ] . 
-&lt;"&amp;F2&amp;"&gt;
-    rdfs:label """&amp;E2&amp;""".
-&lt;"&amp;H2&amp;"&gt;
-    rdfs:label """&amp;G2&amp;"""."</f>
-        <v>ifcp:49
+    ] . "</f>
+        <v xml:space="preserve">ifcp:49
     rdf:type crm:E1 ;
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:49 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2018-12-31" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
-    rdfs:label "鹿児島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;
-    rdfs:label "薩摩川内市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6">
@@ -2145,36 +2137,26 @@
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;F3&amp;"&gt; ;
     crm:P7 &lt;"&amp;H3&amp;"&gt; ;
     crm:P14 """&amp;I3&amp;""" ;
     crm:P67 &lt;"&amp;L3&amp;"&gt; ;
     crm:P4 [
         crm:P116 """&amp;J3&amp;""" ;
         crm:P115 """&amp;K3&amp;""" 
-    ] . 
-&lt;"&amp;F3&amp;"&gt;
-    rdfs:label """&amp;E3&amp;""".
-&lt;"&amp;H3&amp;"&gt;
-    rdfs:label """&amp;G3&amp;"""."</f>
-        <v>ifcp:51
+    ] . "</f>
+        <v xml:space="preserve">ifcp:51
     rdf:type crm:E1 ;
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:51 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14 "男鹿のナマハゲ保存会" ;
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P4 [
         crm:P116 "2018-12-31" ;
         crm:P115 "2018-12-31" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;
-    rdfs:label "男鹿市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="409.6">
@@ -2216,24 +2198,19 @@
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:67
+        <v xml:space="preserve">ifcp:67
     rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P4 [
         crm:P116 "2018-01-02" ;
         crm:P115 "2018-01-02" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
-    rdfs:label "石川県".
-&lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt;
-    rdfs:label "輪島市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="409.6">
@@ -2275,24 +2252,19 @@
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:67
+        <v xml:space="preserve">ifcp:67
     rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:67 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P4 [
         crm:P116 "2018-02-03" ;
         crm:P115 "2018-02-03" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C17000-19700401&gt;
-    rdfs:label "石川県".
-&lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt;
-    rdfs:label "鳳珠郡能登町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="409.6">
@@ -2331,24 +2303,19 @@
       </c>
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:109
+        <v xml:space="preserve">ifcp:109
     rdf:type crm:E1 ;
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:109 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
     crm:P67 &lt;https://kanko-minamisatsuma.jp/event/7547/&gt; ;
     crm:P4 [
         crm:P116 "2018-09-24" ;
         crm:P115 "2018-09-24" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
-    rdfs:label "鹿児島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt;
-    rdfs:label "南九州市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="409.6">
@@ -2387,24 +2354,19 @@
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:110
+        <v xml:space="preserve">ifcp:110
     rdf:type crm:E1 ;
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:110 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14 "六郷町カマクラ保存会" ;
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-11" ;
         crm:P115 "2018-02-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt;
-    rdfs:label "美郷町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="409.6">
@@ -2443,24 +2405,19 @@
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:124
+        <v xml:space="preserve">ifcp:124
     rdf:type crm:E1 ;
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:124 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
     crm:P67 &lt;http://amamishimbun.co.jp/2018/09/11/13136/&gt; ;
     crm:P4 [
         crm:P116 "2018-09-11" ;
         crm:P115 "2018-09-11" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
-    rdfs:label "鹿児島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt;
-    rdfs:label "龍郷町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="409.6">
@@ -2499,24 +2456,19 @@
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:131
+        <v xml:space="preserve">ifcp:131
     rdf:type crm:E1 ;
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:131 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14 "猪俣の百八灯保存会" ;
     crm:P67 &lt;https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/&gt; ;
     crm:P4 [
         crm:P116 "2018-08-15" ;
         crm:P115 "2018-08-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C11000-19700401&gt;
-    rdfs:label "埼玉県".
-&lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt;
-    rdfs:label "美里町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="409.6">
@@ -2555,24 +2507,19 @@
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:135
+        <v xml:space="preserve">ifcp:135
     rdf:type crm:E1 ;
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:135 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14 "下崎山町内会" ;
     crm:P67 &lt;https://www.nishinippon.co.jp/item/n/388880/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-21" ;
         crm:P115 "2018-01-21" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C42000-19700401&gt;
-    rdfs:label "長崎県".
-&lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt;
-    rdfs:label "五島市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6">
@@ -2611,24 +2558,19 @@
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:138
+        <v xml:space="preserve">ifcp:138
     rdf:type crm:E1 ;
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:138 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14 "青海竹のからかい保存会" ;
     crm:P67 &lt;https://www.itoigawa-kanko.net/trad/ominotakenokarakai/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C15000-19700401&gt;
-    rdfs:label "新潟県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt;
-    rdfs:label "糸魚川市大字青海".</v>
+    ] . </v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="409.6">
@@ -2667,24 +2609,19 @@
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:140
+        <v xml:space="preserve">ifcp:140
     rdf:type crm:E1 ;
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:140 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14 "松尾地下，河内地下" ;
     crm:P67 &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
     crm:P4 [
         crm:P116 "2018-08-14" ;
         crm:P115 "2018-08-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C24000-19700401&gt;
-    rdfs:label "三重県".
-&lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt;
-    rdfs:label "鳥羽市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="409.6">
@@ -2706,8 +2643,8 @@
       <c r="G13" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>232</v>
+      <c r="H13" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>92</v>
@@ -2720,24 +2657,19 @@
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:145
+        <v xml:space="preserve">ifcp:145
     rdf:type crm:E1 ;
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:145 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "2018-08-15" ;
         crm:P115 "2018-08-23" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt;
-    rdfs:label "山口県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352081260&gt;
-    rdfs:label "岩国市周東町祖生".</v>
+    ] . </v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="409.6">
@@ -2757,10 +2689,10 @@
         <v>213</v>
       </c>
       <c r="G14" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" t="s">
         <v>233</v>
-      </c>
-      <c r="H14" t="s">
-        <v>234</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
@@ -2776,24 +2708,19 @@
       </c>
       <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:156
+        <v xml:space="preserve">ifcp:156
     rdf:type crm:E1 ;
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:156 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14 "野沢温泉村野沢組" ;
     crm:P67 &lt;https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C20000-19700401&gt;
-    rdfs:label "長野県".
-&lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt;
-    rdfs:label "下高井郡野沢温泉村".</v>
+    ] . </v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6">
@@ -2816,7 +2743,7 @@
         <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
@@ -2832,24 +2759,19 @@
       </c>
       <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:158
+        <v xml:space="preserve">ifcp:158
     rdf:type crm:E1 ;
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:158 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
     crm:P67 &lt;https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/&gt; ;
     crm:P4 [
         crm:P116 "2018-10-08" ;
         crm:P115 "2018-10-09" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C47000-19700401&gt;
-    rdfs:label "沖縄県".
-&lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt;
-    rdfs:label "宮古島市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="409.6">
@@ -2869,10 +2791,10 @@
         <v>217</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
@@ -2888,24 +2810,19 @@
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:162
+        <v xml:space="preserve">ifcp:162
     rdf:type crm:E1 ;
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:162 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
     crm:P67 &lt;https://mainichi.jp/articles/20180108/k00/00m/040/121000c&gt; ;
     crm:P4 [
         crm:P116 "2018-01-07" ;
         crm:P115 "2018-01-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C40000-19700401&gt;
-    rdfs:label "福岡県".
-&lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;
-    rdfs:label "久留米市大善寺町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="409.6">
@@ -2928,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="H17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I17" t="s">
         <v>56</v>
@@ -2941,24 +2858,19 @@
       </c>
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:167
+        <v xml:space="preserve">ifcp:167
     rdf:type crm:E1 ;
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:167 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
     crm:P67 &lt;&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt;
-    rdfs:label "奈良県".
-&lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt;
-    rdfs:label "五條市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="409.6">
@@ -2981,7 +2893,7 @@
         <v>180</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -2997,24 +2909,19 @@
       </c>
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:179
+        <v xml:space="preserve">ifcp:179
     rdf:type crm:E1 ;
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:179 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14 "大磯町左義長保存会" ;
     crm:P67 &lt;https://paddler-shonan.com/eye/event-sagicho/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-13" ;
         crm:P115 "2018-01-13" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt;
-    rdfs:label "神奈川県".
-&lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt;
-    rdfs:label "大磯町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="409.6">
@@ -3037,7 +2944,7 @@
         <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>93</v>
@@ -3053,24 +2960,19 @@
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:188
+        <v xml:space="preserve">ifcp:188
     rdf:type crm:E1 ;
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:188 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/14018&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/page/sac/C05000-19700401&gt;
-    rdfs:label "秋田県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt;
-    rdfs:label "にかほ市象潟町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="409.6">
@@ -3096,7 +2998,7 @@
         <v>131</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I20" t="s">
         <v>23</v>
@@ -3112,24 +3014,19 @@
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:195
+        <v xml:space="preserve">ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-03" ;
         crm:P115 "2018-01-03" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
-    rdfs:label "山形県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt;
-    rdfs:label "遊佐町吹浦地区女鹿".</v>
+    ] . </v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6">
@@ -3155,7 +3052,7 @@
         <v>132</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I21" t="s">
         <v>23</v>
@@ -3171,24 +3068,19 @@
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:195
+        <v xml:space="preserve">ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-01" ;
         crm:P115 "2018-01-01" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700401&gt;
-    rdfs:label "山形県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt;
-    rdfs:label "遊佐町吹浦地区滝ノ浦".</v>
+    ] . </v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="409.6">
@@ -3208,13 +3100,13 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
         <v>133</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
@@ -3230,24 +3122,19 @@
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:195
+        <v xml:space="preserve">ifcp:195
     rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C06000-19700403&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-06" ;
         crm:P115 "2018-01-06" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C06000-19700403&gt;
-    rdfs:label "山形県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt;
-    rdfs:label "遊佐町吹浦地区鳥崎".</v>
+    ] . </v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="409.6">
@@ -3270,7 +3157,7 @@
         <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -3286,24 +3173,19 @@
       </c>
       <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:204
+        <v xml:space="preserve">ifcp:204
     rdf:type crm:E1 ;
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:204 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14 "米川の水かぶり保存会" ;
     crm:P67 &lt;https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-07" ;
         crm:P115 "2018-02-07" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt;
-    rdfs:label "宮城県".
-&lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt;
-    rdfs:label "登米市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="409.6">
@@ -3326,7 +3208,7 @@
         <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
         <v>74</v>
@@ -3342,24 +3224,19 @@
       </c>
       <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:218
+        <v xml:space="preserve">ifcp:218
     rdf:type crm:E1 ;
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:218 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14 "加勢鳥保存会" ;
     crm:P67 &lt;https://www.asobo-saga.jp/event/detail.html?id=2418&gt; ;
     crm:P4 [
         crm:P116 "2018-02-10" ;
         crm:P115 "2018-02-10" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C41000-19700401&gt;
-    rdfs:label "佐賀県".
-&lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt;
-    rdfs:label "佐賀市蓮池町見島".</v>
+    ] . </v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="409.6">
@@ -3382,7 +3259,7 @@
         <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -3398,24 +3275,19 @@
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:221
+        <v xml:space="preserve">ifcp:221
     rdf:type crm:E1 ;
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:221 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14 "吉浜スネカ保存会" ;
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt;
-    rdfs:label "岩手県".
-&lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt;
-    rdfs:label "大船渡市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="409.6">
@@ -3438,7 +3310,7 @@
         <v>185</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" t="s">
         <v>45</v>
@@ -3454,24 +3326,19 @@
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:228
+        <v xml:space="preserve">ifcp:228
     rdf:type crm:E1 ;
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:228 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/sac/C23000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14 "鳥羽区" ;
     crm:P67 &lt;https://www.katch.co.jp/kinjo/arekore/arekore44.html&gt; ;
     crm:P4 [
         crm:P116 "2018-02-11" ;
         crm:P115 "2018-02-11" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/page/sac/C23000-19700401&gt;
-    rdfs:label "愛知県".
-&lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;
-    rdfs:label "西尾市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="409.6">
@@ -3494,7 +3361,7 @@
         <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -3510,24 +3377,19 @@
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:236
+        <v xml:space="preserve">ifcp:236
     rdf:type crm:E1 ;
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:236 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14 "大浦グロ保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/22712&gt; ;
     crm:P4 [
         crm:P116 "2018-01-11" ;
         crm:P115 "2018-01-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt;
-    rdfs:label "島根県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt;
-    rdfs:label "大田市五十猛町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="409.6">
@@ -3550,7 +3412,7 @@
         <v>187</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -3566,24 +3428,19 @@
       </c>
       <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:240
+        <v xml:space="preserve">ifcp:240
     rdf:type crm:E1 ;
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:240 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14 "えんずのわり保存会" ;
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P4 [
         crm:P116 "2018-01-11" ;
         crm:P115 "2018-01-16" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C04000-19700401&gt;
-    rdfs:label "宮城県".
-&lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt;
-    rdfs:label "東松島市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="409.6">
@@ -3603,10 +3460,10 @@
         <v>219</v>
       </c>
       <c r="G29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" t="s">
         <v>250</v>
-      </c>
-      <c r="H29" t="s">
-        <v>251</v>
       </c>
       <c r="I29" t="s">
         <v>51</v>
@@ -3622,24 +3479,19 @@
       </c>
       <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:245
+        <v xml:space="preserve">ifcp:245
     rdf:type crm:E1 ;
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:245 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14 "東光寺追儺式及び田遊び保存会" ;
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-01-08" ;
         crm:P115 "2018-01-08" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C28000-19700401&gt;
-    rdfs:label "兵庫県".
-&lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt;
-    rdfs:label "加西市上万願寺392".</v>
+    ] . </v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="409.6">
@@ -3662,7 +3514,7 @@
         <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
@@ -3678,24 +3530,19 @@
       </c>
       <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:250
+        <v xml:space="preserve">ifcp:250
     rdf:type crm:E1 ;
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:250 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14 "酒津とんど祭り保存会" ;
     crm:P67 &lt;https://matsuri-no-hi.com/matsuri/20962&gt; ;
     crm:P4 [
         crm:P116 "2018-01-13" ;
         crm:P115 "2018-01-14" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C31000-19700401&gt;
-    rdfs:label "鳥取県".
-&lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt;
-    rdfs:label "鳥取市気高町酒津".</v>
+    ] . </v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="409.6">
@@ -3718,7 +3565,7 @@
         <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I31" t="s">
         <v>98</v>
@@ -3734,24 +3581,19 @@
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:253
+        <v xml:space="preserve">ifcp:253
     rdf:type crm:E1 ;
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:253 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14 "三島町年中行事保存会" ;
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-15" ;
         crm:P115 "2018-01-15" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C07000-19700401&gt;
-    rdfs:label "福島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt;
-    rdfs:label "三島町".</v>
+    ] . </v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="409.6">
@@ -3773,8 +3615,8 @@
       <c r="G32" t="s">
         <v>191</v>
       </c>
-      <c r="H32" t="s">
-        <v>254</v>
+      <c r="H32" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="I32" t="s">
         <v>65</v>
@@ -3790,24 +3632,19 @@
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:264
+        <v xml:space="preserve">ifcp:264
     rdf:type crm:E1 ;
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:264 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100&gt; ;
+    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14 "神明祭顕彰会" ;
     crm:P67 &lt;http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ&gt; ;
     crm:P4 [
         crm:P116 "2018-02-11" ;
         crm:P115 "2018-02-11" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt;
-    rdfs:label "山口県".
-&lt;http://data.e-stat.go.jp/lod/page/smallArea/g00200521/2015/S352120100&gt;
-    rdfs:label "柳井市阿月".</v>
+    ] . </v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="409.6">
@@ -3830,7 +3667,7 @@
         <v>190</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
@@ -3846,24 +3683,19 @@
       </c>
       <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:266
+        <v xml:space="preserve">ifcp:266
     rdf:type crm:E1 ;
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:266 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14 "塞の神まつり保存会" ;
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C16000-19700401&gt;
-    rdfs:label "富山県".
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt;
-    rdfs:label "入善町上野".</v>
+    ] . </v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="409.6">
@@ -3883,10 +3715,10 @@
         <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
@@ -3902,24 +3734,19 @@
       </c>
       <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:269
+        <v xml:space="preserve">ifcp:269
     rdf:type crm:E1 ;
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:269 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14 "三戸お精霊流し保存会" ;
     crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-16" ;
         crm:P115 "2018-08-16" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C14000-19700401&gt;
-    rdfs:label "神奈川県".
-&lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt;
-    rdfs:label "三浦市初声町三戸".</v>
+    ] . </v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="409.6">
@@ -3942,7 +3769,7 @@
         <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I35" t="s">
         <v>54</v>
@@ -3958,24 +3785,19 @@
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:277
+        <v xml:space="preserve">ifcp:277
     rdf:type crm:E1 ;
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:277 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
     crm:P67 &lt;http://www.pref.nara.jp/17619.htm&gt; ;
     crm:P4 [
         crm:P116 "2018-02-09" ;
         crm:P115 "2018-02-11" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C29000-19700401&gt;
-    rdfs:label "奈良県".
-&lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;
-    rdfs:label "桜井市".</v>
+    ] . </v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="409.6">
@@ -3998,7 +3820,7 @@
         <v>193</v>
       </c>
       <c r="H36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I36" t="s">
         <v>67</v>
@@ -4014,24 +3836,19 @@
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:278
+        <v xml:space="preserve">ifcp:278
     rdf:type crm:E1 ;
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:278 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14 "地福といとい保存会" ;
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C35000-19700401&gt;
-    rdfs:label "山口県".
-&lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt;
-    rdfs:label "山口市阿東".</v>
+    ] . </v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="409.6">
@@ -4054,7 +3871,7 @@
         <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
@@ -4070,24 +3887,19 @@
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:298
+        <v xml:space="preserve">ifcp:298
     rdf:type crm:E1 ;
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:298 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14 "悪石島の盆踊り保存会" ;
     crm:P67 &lt;https://www.asahi.com/articles/DA3S13652403.html&gt; ;
     crm:P4 [
         crm:P116 "2018-08-26" ;
         crm:P115 "2018-08-26" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
-    rdfs:label "鹿児島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt;
-    rdfs:label "十島村悪石島".</v>
+    ] . </v>
       </c>
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" ht="409.6">
@@ -4110,7 +3922,7 @@
         <v>195</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>85</v>
@@ -4126,24 +3938,19 @@
       </c>
       <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>ifcp:299
+        <v xml:space="preserve">ifcp:299
     rdf:type crm:E1 ;
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;
     crm:P17 ifcp:299 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt; ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
     crm:P4 [
         crm:P116 "2018-09-10" ;
         crm:P115 "2018-09-11" 
-    ] . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46000-19700401&gt;
-    rdfs:label "鹿児島県".
-&lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt;
-    rdfs:label "三島村硫黄島".</v>
+    ] . </v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4222,6 +4029,8 @@
     <hyperlink ref="H20" r:id="rId16" xr:uid="{3B392B49-89D1-6E42-8236-ECC196376D09}"/>
     <hyperlink ref="H21" r:id="rId17" xr:uid="{D676ABD2-196A-B841-AAEF-3649BF254333}"/>
     <hyperlink ref="H22" r:id="rId18" display="http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240" xr:uid="{5C7D3353-076C-B74C-8C5F-90C8644B618A}"/>
+    <hyperlink ref="H13" r:id="rId19" xr:uid="{12029A51-AA02-1A41-B066-0775A56FA658}"/>
+    <hyperlink ref="H32" r:id="rId20" xr:uid="{BD6E48F9-076F-F74F-B407-57677E52A0BB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F7603-CE53-A344-A054-41C47542A3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569ED1E-316D-494E-B776-8D18DAB048BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -2069,7 +2069,6 @@
       </c>
       <c r="M2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdf:type crm:E1 ;
     rdfs:label """&amp;D2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
@@ -2082,7 +2081,6 @@
         crm:P115 """&amp;K2&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:49
-    rdf:type crm:E1 ;
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2132,7 +2130,6 @@
       </c>
       <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M38" si="0">"ifcp:"&amp;A3&amp;"
-    rdf:type crm:E1 ;
     rdfs:label """&amp;D3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
@@ -2145,7 +2142,6 @@
         crm:P115 """&amp;K3&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:51
-    rdf:type crm:E1 ;
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2199,7 +2195,6 @@
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
-    rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
@@ -2253,7 +2248,6 @@
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
-    rdf:type crm:E1 ;
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
@@ -2304,7 +2298,6 @@
       <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:109
-    rdf:type crm:E1 ;
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2355,7 +2348,6 @@
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:110
-    rdf:type crm:E1 ;
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2406,7 +2398,6 @@
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:124
-    rdf:type crm:E1 ;
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2457,7 +2448,6 @@
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:131
-    rdf:type crm:E1 ;
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2508,7 +2498,6 @@
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:135
-    rdf:type crm:E1 ;
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2559,7 +2548,6 @@
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:138
-    rdf:type crm:E1 ;
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2610,7 +2598,6 @@
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:140
-    rdf:type crm:E1 ;
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2658,7 +2645,6 @@
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:145
-    rdf:type crm:E1 ;
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2709,7 +2695,6 @@
       <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:156
-    rdf:type crm:E1 ;
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2760,7 +2745,6 @@
       <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:158
-    rdf:type crm:E1 ;
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2811,7 +2795,6 @@
       <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:162
-    rdf:type crm:E1 ;
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2859,7 +2842,6 @@
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:167
-    rdf:type crm:E1 ;
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2910,7 +2892,6 @@
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:179
-    rdf:type crm:E1 ;
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -2961,7 +2942,6 @@
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:188
-    rdf:type crm:E1 ;
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3015,7 +2995,6 @@
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
-    rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
@@ -3069,7 +3048,6 @@
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
-    rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
@@ -3123,7 +3101,6 @@
       <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
-    rdf:type crm:E1 ;
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
@@ -3174,7 +3151,6 @@
       <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:204
-    rdf:type crm:E1 ;
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3225,7 +3201,6 @@
       <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:218
-    rdf:type crm:E1 ;
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3276,7 +3251,6 @@
       <c r="M25" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:221
-    rdf:type crm:E1 ;
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3327,7 +3301,6 @@
       <c r="M26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:228
-    rdf:type crm:E1 ;
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3378,7 +3351,6 @@
       <c r="M27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:236
-    rdf:type crm:E1 ;
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3429,7 +3401,6 @@
       <c r="M28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:240
-    rdf:type crm:E1 ;
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3480,7 +3451,6 @@
       <c r="M29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:245
-    rdf:type crm:E1 ;
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3531,7 +3501,6 @@
       <c r="M30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:250
-    rdf:type crm:E1 ;
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3582,7 +3551,6 @@
       <c r="M31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:253
-    rdf:type crm:E1 ;
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3633,7 +3601,6 @@
       <c r="M32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:264
-    rdf:type crm:E1 ;
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3684,7 +3651,6 @@
       <c r="M33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:266
-    rdf:type crm:E1 ;
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3735,7 +3701,6 @@
       <c r="M34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:269
-    rdf:type crm:E1 ;
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3786,7 +3751,6 @@
       <c r="M35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:277
-    rdf:type crm:E1 ;
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3837,7 +3801,6 @@
       <c r="M36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:278
-    rdf:type crm:E1 ;
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3888,7 +3851,6 @@
       <c r="M37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:298
-    rdf:type crm:E1 ;
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
@@ -3939,7 +3901,6 @@
       <c r="M38" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:299
-    rdf:type crm:E1 ;
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7569ED1E-316D-494E-B776-8D18DAB048BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123D8361-8EBF-6E42-8B4D-254B33497B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31000" yWindow="1740" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="266">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -429,10 +429,6 @@
   </si>
   <si>
     <t>2018-08-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-08-23</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -964,6 +960,20 @@
   <si>
     <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>URLレイヤー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.hikari.fun/archives/19937441.html</t>
+  </si>
+  <si>
+    <t>開催せず</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://nara.sirabe.jp/event/dadadonoonihashiri/</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1622,6 +1632,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1980,11 +1993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1992,12 +2005,12 @@
     <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1">
+    <row r="1" spans="1:14" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2009,13 +2022,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2029,11 +2042,14 @@
       <c r="L1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.6">
+      <c r="M1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="409.6">
       <c r="A2">
         <v>49</v>
       </c>
@@ -2047,13 +2063,13 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
         <v>221</v>
-      </c>
-      <c r="H2" t="s">
-        <v>222</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>91</v>
@@ -2067,7 +2083,10 @@
       <c r="L2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="4" t="str">
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;D2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
@@ -2094,7 +2113,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="409.6">
+    <row r="3" spans="1:14" ht="409.6">
       <c r="A3">
         <v>51</v>
       </c>
@@ -2108,13 +2127,13 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -2128,8 +2147,11 @@
       <c r="L3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="4" t="str">
-        <f t="shared" ref="M3:M38" si="0">"ifcp:"&amp;A3&amp;"
+      <c r="M3" s="12">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N38" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;D3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
@@ -2155,7 +2177,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="409.6">
+    <row r="4" spans="1:14" ht="409.6">
       <c r="A4">
         <v>67</v>
       </c>
@@ -2172,13 +2194,13 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
@@ -2192,7 +2214,10 @@
       <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="4" t="str">
+      <c r="M4" s="12">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
@@ -2208,7 +2233,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="409.6">
+    <row r="5" spans="1:14" ht="409.6">
       <c r="A5">
         <v>67</v>
       </c>
@@ -2225,13 +2250,13 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
         <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
@@ -2245,7 +2270,10 @@
       <c r="L5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="4" t="str">
+      <c r="M5" s="12">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
@@ -2261,7 +2289,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="409.6">
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="8">
         <v>109</v>
       </c>
@@ -2275,13 +2303,13 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>87</v>
@@ -2295,7 +2323,10 @@
       <c r="L6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="12">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
@@ -2311,7 +2342,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="409.6">
+    <row r="7" spans="1:14" ht="409.6">
       <c r="A7">
         <v>110</v>
       </c>
@@ -2325,13 +2356,13 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -2345,7 +2376,10 @@
       <c r="L7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
@@ -2361,7 +2395,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="409.6">
+    <row r="8" spans="1:14" ht="409.6">
       <c r="A8">
         <v>124</v>
       </c>
@@ -2375,13 +2409,13 @@
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
         <v>80</v>
@@ -2395,7 +2429,10 @@
       <c r="L8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="4" t="str">
+      <c r="M8" s="12">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
@@ -2411,7 +2448,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="409.6">
+    <row r="9" spans="1:14" ht="409.6">
       <c r="A9">
         <v>131</v>
       </c>
@@ -2425,13 +2462,13 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
@@ -2445,7 +2482,10 @@
       <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="4" t="str">
+      <c r="M9" s="12">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
@@ -2461,7 +2501,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.6">
+    <row r="10" spans="1:14" ht="409.6">
       <c r="A10">
         <v>135</v>
       </c>
@@ -2475,13 +2515,13 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
@@ -2495,7 +2535,10 @@
       <c r="L10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="M10" s="12">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
@@ -2511,7 +2554,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="409.6">
+    <row r="11" spans="1:14" ht="409.6">
       <c r="A11">
         <v>138</v>
       </c>
@@ -2525,13 +2568,13 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
@@ -2543,9 +2586,12 @@
         <v>120</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="4" t="str">
+        <v>163</v>
+      </c>
+      <c r="M11" s="12">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
@@ -2561,7 +2607,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="409.6">
+    <row r="12" spans="1:14" ht="409.6">
       <c r="A12">
         <v>140</v>
       </c>
@@ -2575,13 +2621,13 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -2593,9 +2639,12 @@
         <v>117</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="4" t="str">
+        <v>164</v>
+      </c>
+      <c r="M12" s="12">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
@@ -2611,7 +2660,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="409.6">
+    <row r="13" spans="1:14" ht="409.6">
       <c r="A13">
         <v>145</v>
       </c>
@@ -2625,24 +2674,30 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="4" t="str">
+        <v>264</v>
+      </c>
+      <c r="L13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="12">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
@@ -2651,14 +2706,14 @@
     crm:P17 ifcp:145 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
-    crm:P67 &lt;&gt; ;
+    crm:P67 &lt;http://www.hikari.fun/archives/19937441.html&gt; ;
     crm:P4 [
-        crm:P116 "2018-08-15" ;
-        crm:P115 "2018-08-23" 
+        crm:P116 "開催せず" ;
+        crm:P115 "開催せず" 
     ] . </v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="409.6">
+    <row r="14" spans="1:14" ht="409.6">
       <c r="A14">
         <v>156</v>
       </c>
@@ -2672,13 +2727,13 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" t="s">
         <v>232</v>
-      </c>
-      <c r="H14" t="s">
-        <v>233</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
@@ -2690,9 +2745,12 @@
         <v>120</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="4" t="str">
+        <v>165</v>
+      </c>
+      <c r="M14" s="12">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
@@ -2708,7 +2766,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="409.6">
+    <row r="15" spans="1:14" ht="409.6">
       <c r="A15">
         <v>158</v>
       </c>
@@ -2722,27 +2780,30 @@
         <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="L15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" s="4" t="str">
+        <v>166</v>
+      </c>
+      <c r="M15" s="12">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
@@ -2758,7 +2819,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="409.6">
+    <row r="16" spans="1:14" ht="409.6">
       <c r="A16">
         <v>162</v>
       </c>
@@ -2772,27 +2833,30 @@
         <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="4" t="str">
+      <c r="M16" s="12">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
@@ -2808,7 +2872,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="409.6">
+    <row r="17" spans="1:14" ht="409.6">
       <c r="A17">
         <v>167</v>
       </c>
@@ -2822,24 +2886,30 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I17" t="s">
         <v>56</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="4" t="str">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="12">
+        <v>4</v>
+      </c>
+      <c r="N17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
@@ -2848,14 +2918,14 @@
     crm:P17 ifcp:167 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
-    crm:P67 &lt;&gt; ;
+    crm:P67 &lt;https://nara.sirabe.jp/event/dadadonoonihashiri/&gt; ;
     crm:P4 [
         crm:P116 "2018-01-14" ;
         crm:P115 "2018-01-14" 
     ] . </v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="409.6">
+    <row r="18" spans="1:14" ht="409.6">
       <c r="A18">
         <v>179</v>
       </c>
@@ -2866,30 +2936,33 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" t="s">
         <v>209</v>
       </c>
-      <c r="F18" t="s">
-        <v>210</v>
-      </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="4" t="str">
+      <c r="M18" s="12">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:179
     rdfs:label "大磯の左義長"@ja .
@@ -2905,7 +2978,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="409.6">
+    <row r="19" spans="1:14" ht="409.6">
       <c r="A19">
         <v>188</v>
       </c>
@@ -2919,13 +2992,13 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>93</v>
@@ -2937,9 +3010,12 @@
         <v>120</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="4" t="str">
+        <v>129</v>
+      </c>
+      <c r="M19" s="12">
+        <v>4</v>
+      </c>
+      <c r="N19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
@@ -2955,7 +3031,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="409.6">
+    <row r="20" spans="1:14" ht="409.6">
       <c r="A20">
         <v>195</v>
       </c>
@@ -2972,27 +3048,30 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="4" t="str">
+        <v>137</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
@@ -3008,7 +3087,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="409.6">
+    <row r="21" spans="1:14" ht="409.6">
       <c r="A21">
         <v>195</v>
       </c>
@@ -3025,27 +3104,30 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I21" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="4" t="str">
+        <v>136</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
@@ -3061,7 +3143,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="409.6">
+    <row r="22" spans="1:14" ht="409.6">
       <c r="A22">
         <v>195</v>
       </c>
@@ -3078,27 +3160,30 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" s="4" t="str">
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
@@ -3114,7 +3199,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="409.6">
+    <row r="23" spans="1:14" ht="409.6">
       <c r="A23">
         <v>204</v>
       </c>
@@ -3128,27 +3213,30 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="4" t="str">
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:204
     rdfs:label "米川の水かぶり"@ja .
@@ -3164,7 +3252,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="409.6">
+    <row r="24" spans="1:14" ht="409.6">
       <c r="A24">
         <v>218</v>
       </c>
@@ -3178,27 +3266,30 @@
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I24" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" t="s">
         <v>141</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="4" t="str">
+      <c r="M24" s="12">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:218
     rdfs:label "見島のカセドリ"@ja .
@@ -3214,7 +3305,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="409.6">
+    <row r="25" spans="1:14" ht="409.6">
       <c r="A25">
         <v>221</v>
       </c>
@@ -3228,13 +3319,13 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -3246,9 +3337,12 @@
         <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>143</v>
-      </c>
-      <c r="M25" s="4" t="str">
+        <v>142</v>
+      </c>
+      <c r="M25" s="12">
+        <v>4</v>
+      </c>
+      <c r="N25" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
@@ -3264,7 +3358,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="409.6">
+    <row r="26" spans="1:14" ht="409.6">
       <c r="A26">
         <v>228</v>
       </c>
@@ -3278,13 +3372,13 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I26" t="s">
         <v>45</v>
@@ -3296,9 +3390,12 @@
         <v>110</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M26" s="4" t="str">
+        <v>143</v>
+      </c>
+      <c r="M26" s="12">
+        <v>4</v>
+      </c>
+      <c r="N26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
@@ -3314,7 +3411,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="409.6">
+    <row r="27" spans="1:14" ht="409.6">
       <c r="A27">
         <v>236</v>
       </c>
@@ -3328,27 +3425,30 @@
         <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
-      </c>
-      <c r="M27" s="4" t="str">
+        <v>145</v>
+      </c>
+      <c r="M27" s="12">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:236
     rdfs:label "五十猛のグロ"@ja .
@@ -3364,7 +3464,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="409.6">
+    <row r="28" spans="1:14" ht="409.6">
       <c r="A28">
         <v>240</v>
       </c>
@@ -3378,27 +3478,30 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
         <v>147</v>
       </c>
-      <c r="L28" t="s">
-        <v>148</v>
-      </c>
-      <c r="M28" s="4" t="str">
+      <c r="M28" s="12">
+        <v>4</v>
+      </c>
+      <c r="N28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
@@ -3414,7 +3517,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="409.6">
+    <row r="29" spans="1:14" ht="409.6">
       <c r="A29">
         <v>245</v>
       </c>
@@ -3428,27 +3531,30 @@
         <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" t="s">
         <v>249</v>
-      </c>
-      <c r="H29" t="s">
-        <v>250</v>
       </c>
       <c r="I29" t="s">
         <v>51</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M29" s="4" t="str">
+      <c r="M29" s="12">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
@@ -3464,7 +3570,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="409.6">
+    <row r="30" spans="1:14" ht="409.6">
       <c r="A30">
         <v>250</v>
       </c>
@@ -3478,27 +3584,30 @@
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
-      </c>
-      <c r="M30" s="4" t="str">
+        <v>150</v>
+      </c>
+      <c r="M30" s="12">
+        <v>4</v>
+      </c>
+      <c r="N30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
@@ -3514,7 +3623,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="409.6">
+    <row r="31" spans="1:14" ht="409.6">
       <c r="A31">
         <v>253</v>
       </c>
@@ -3528,13 +3637,13 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
         <v>98</v>
@@ -3546,9 +3655,12 @@
         <v>120</v>
       </c>
       <c r="L31" t="s">
-        <v>152</v>
-      </c>
-      <c r="M31" s="4" t="str">
+        <v>151</v>
+      </c>
+      <c r="M31" s="12">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
@@ -3564,7 +3676,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="409.6">
+    <row r="32" spans="1:14" ht="409.6">
       <c r="A32">
         <v>264</v>
       </c>
@@ -3578,13 +3690,13 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I32" t="s">
         <v>65</v>
@@ -3596,9 +3708,12 @@
         <v>110</v>
       </c>
       <c r="L32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M32" s="4" t="str">
+        <v>152</v>
+      </c>
+      <c r="M32" s="12">
+        <v>2</v>
+      </c>
+      <c r="N32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:264
     rdfs:label "阿月の神明祭"@ja .
@@ -3614,7 +3729,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="409.6">
+    <row r="33" spans="1:14" ht="409.6">
       <c r="A33">
         <v>266</v>
       </c>
@@ -3628,27 +3743,30 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s">
-        <v>154</v>
-      </c>
-      <c r="M33" s="4" t="str">
+        <v>153</v>
+      </c>
+      <c r="M33" s="12">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
@@ -3664,7 +3782,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="409.6">
+    <row r="34" spans="1:14" ht="409.6">
       <c r="A34">
         <v>269</v>
       </c>
@@ -3678,27 +3796,30 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" t="s">
         <v>254</v>
-      </c>
-      <c r="H34" t="s">
-        <v>255</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L34" t="s">
         <v>155</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" t="s">
-        <v>156</v>
-      </c>
-      <c r="M34" s="4" t="str">
+      <c r="M34" s="12">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
@@ -3714,7 +3835,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="409.6">
+    <row r="35" spans="1:14" ht="409.6">
       <c r="A35">
         <v>277</v>
       </c>
@@ -3728,27 +3849,30 @@
         <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I35" t="s">
         <v>54</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M35" s="4" t="str">
+        <v>157</v>
+      </c>
+      <c r="M35" s="12">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
@@ -3764,7 +3888,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="409.6">
+    <row r="36" spans="1:14" ht="409.6">
       <c r="A36">
         <v>278</v>
       </c>
@@ -3778,27 +3902,30 @@
         <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
         <v>67</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="4" t="str">
+        <v>158</v>
+      </c>
+      <c r="M36" s="12">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:278
     rdfs:label "地福のトイトイ"@ja .
@@ -3814,7 +3941,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="409.6">
+    <row r="37" spans="1:14" ht="409.6">
       <c r="A37">
         <v>298</v>
       </c>
@@ -3828,27 +3955,30 @@
         <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I37" t="s">
         <v>82</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L37" t="s">
-        <v>161</v>
-      </c>
-      <c r="M37" s="4" t="str">
+      <c r="M37" s="12">
+        <v>3</v>
+      </c>
+      <c r="N37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
@@ -3864,7 +3994,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="8" customFormat="1" ht="409.6">
+    <row r="38" spans="1:14" s="8" customFormat="1" ht="409.6">
       <c r="A38" s="8">
         <v>299</v>
       </c>
@@ -3878,27 +4008,30 @@
         <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>85</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>115</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="M38" s="4" t="str">
+        <v>161</v>
+      </c>
+      <c r="M38" s="12">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
@@ -3914,59 +4047,59 @@
     ] . </v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="13:13">
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="13:13">
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="13:13">
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="13:13">
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="13:13">
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="13:13">
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="13:13">
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="13:13">
-      <c r="M56" s="4"/>
+    <row r="39" spans="1:14">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="14:14">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="14:14">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E56" xr:uid="{A989E8B0-0D9B-0342-BDF8-B3D467B87912}"/>

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123D8361-8EBF-6E42-8B4D-254B33497B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460F88B-3384-5443-8E62-1863920445DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="1740" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31000" yWindow="2600" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$E$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$F$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="267">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -974,6 +974,10 @@
   </si>
   <si>
     <t>https://nara.sirabe.jp/event/dadadonoonihashiri/</t>
+  </si>
+  <si>
+    <t>開催年</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1993,19 +1997,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -2016,93 +2020,101 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.6">
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2">
         <v>49</v>
       </c>
       <c r="C2">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2018</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>220</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdfs:label """&amp;D2&amp;"""@ja .
+    rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;H2&amp;"&gt; ;
-    crm:P14 """&amp;I2&amp;""" ;
-    crm:P67 &lt;"&amp;L2&amp;"&gt; ;
+    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14 """&amp;J2&amp;""" ;
+    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;J2&amp;""" ;
-        crm:P115 """&amp;K2&amp;""" 
+        crm:P116 """&amp;K2&amp;""" ;
+        crm:P115 """&amp;L2&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:49
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:49 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
@@ -2113,60 +2125,65 @@
     ] . </v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.6">
+    <row r="3" spans="1:15" ht="409.6">
       <c r="A3">
         <v>51</v>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>198</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>168</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>219</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>2</v>
       </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N38" si="0">"ifcp:"&amp;A3&amp;"
-    rdfs:label """&amp;D3&amp;"""@ja .
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
+    rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;H3&amp;"&gt; ;
-    crm:P14 """&amp;I3&amp;""" ;
-    crm:P67 &lt;"&amp;L3&amp;"&gt; ;
+    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14 """&amp;J3&amp;""" ;
+    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;J3&amp;""" ;
-        crm:P115 """&amp;K3&amp;""" 
+        crm:P116 """&amp;K3&amp;""" ;
+        crm:P115 """&amp;L3&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:51 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14 "男鹿のナマハゲ保存会" ;
@@ -2177,7 +2194,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.6">
+    <row r="4" spans="1:15" ht="409.6">
       <c r="A4">
         <v>67</v>
       </c>
@@ -2187,42 +2204,46 @@
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>210</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>103</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>222</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="12">
+      <c r="N4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2233,7 +2254,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.6">
+    <row r="5" spans="1:15" ht="409.6">
       <c r="A5">
         <v>67</v>
       </c>
@@ -2243,42 +2264,46 @@
       <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>210</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>223</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>39</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="12">
         <v>2</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2289,49 +2314,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="8">
         <v>109</v>
       </c>
       <c r="C6" s="8">
         <v>154</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <v>2</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:109 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
@@ -2342,49 +2371,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.6">
+    <row r="7" spans="1:15" ht="409.6">
       <c r="A7">
         <v>110</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:110 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14 "六郷町カマクラ保存会" ;
@@ -2395,49 +2428,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.6">
+    <row r="8" spans="1:15" ht="409.6">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="C8">
         <v>155</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>2018</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>3</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:124 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
@@ -2448,49 +2485,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.6">
+    <row r="9" spans="1:15" ht="409.6">
       <c r="A9">
         <v>131</v>
       </c>
       <c r="C9">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2018</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>26</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>2</v>
       </c>
-      <c r="N9" s="4" t="str">
+      <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:131 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14 "猪俣の百八灯保存会" ;
@@ -2501,49 +2542,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.6">
+    <row r="10" spans="1:15" ht="409.6">
       <c r="A10">
         <v>135</v>
       </c>
       <c r="C10">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>77</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="12">
         <v>3</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:135 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14 "下崎山町内会" ;
@@ -2554,49 +2599,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.6">
+    <row r="11" spans="1:15" ht="409.6">
       <c r="A11">
         <v>138</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>2018</v>
+      </c>
+      <c r="E11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>2</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:138 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14 "青海竹のからかい保存会" ;
@@ -2607,49 +2656,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.6">
+    <row r="12" spans="1:15" ht="409.6">
       <c r="A12">
         <v>140</v>
       </c>
       <c r="C12">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>2018</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>2</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:140 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14 "松尾地下，河内地下" ;
@@ -2660,49 +2713,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.6">
+    <row r="13" spans="1:15" ht="409.6">
       <c r="A13">
         <v>145</v>
       </c>
       <c r="C13">
         <v>124</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>2018</v>
+      </c>
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M13" t="s">
         <v>263</v>
       </c>
-      <c r="M13" s="12">
+      <c r="N13" s="12">
         <v>4</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:145 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
@@ -2713,49 +2770,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.6">
+    <row r="14" spans="1:15" ht="409.6">
       <c r="A14">
         <v>156</v>
       </c>
       <c r="C14">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2018</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>212</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>231</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>232</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>42</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="12">
+      <c r="N14" s="12">
         <v>4</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:156 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14 "野沢温泉村野沢組" ;
@@ -2766,49 +2827,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="409.6">
+    <row r="15" spans="1:15" ht="409.6">
       <c r="A15">
         <v>158</v>
       </c>
       <c r="C15">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>2018</v>
+      </c>
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>200</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>177</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>233</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>4</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:158 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
@@ -2819,49 +2884,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.6">
+    <row r="16" spans="1:15" ht="409.6">
       <c r="A16">
         <v>162</v>
       </c>
       <c r="C16">
         <v>136</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>71</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>3</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:162 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
@@ -2872,49 +2941,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="409.6">
+    <row r="17" spans="1:15" ht="409.6">
       <c r="A17">
         <v>167</v>
       </c>
       <c r="C17">
         <v>679</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>214</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>178</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>236</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>56</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" t="s">
         <v>265</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="12">
         <v>4</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:167 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
@@ -2925,49 +2998,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.6">
+    <row r="18" spans="1:15" ht="409.6">
       <c r="A18">
         <v>179</v>
       </c>
       <c r="C18">
         <v>675</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>208</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>209</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>179</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>237</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>29</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>4</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:179
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:179 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14 "大磯町左義長保存会" ;
@@ -2978,49 +3055,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="409.6">
+    <row r="19" spans="1:15" ht="409.6">
       <c r="A19">
         <v>188</v>
       </c>
       <c r="C19">
         <v>662</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>2018</v>
+      </c>
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>198</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>180</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>238</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>4</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:188 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
@@ -3031,7 +3112,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="409.6">
+    <row r="20" spans="1:15" ht="409.6">
       <c r="A20">
         <v>195</v>
       </c>
@@ -3041,42 +3122,46 @@
       <c r="C20">
         <v>712</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>205</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>23</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N20" s="12">
         <v>1</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3087,7 +3172,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="409.6">
+    <row r="21" spans="1:15" ht="409.6">
       <c r="A21">
         <v>195</v>
       </c>
@@ -3097,42 +3182,46 @@
       <c r="C21">
         <v>712</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>205</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>23</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>1</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3143,7 +3232,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="409.6">
+    <row r="22" spans="1:15" ht="409.6">
       <c r="A22">
         <v>195</v>
       </c>
@@ -3153,42 +3242,46 @@
       <c r="C22">
         <v>712</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>2018</v>
+      </c>
+      <c r="E22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>241</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>23</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N22" s="12">
         <v>1</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3199,49 +3292,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="409.6">
+    <row r="23" spans="1:15" ht="409.6">
       <c r="A23">
         <v>204</v>
       </c>
       <c r="C23">
         <v>735</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>201</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>181</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>242</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>12</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="12">
+      <c r="N23" s="12">
         <v>1</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:204
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:204 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14 "米川の水かぶり保存会" ;
@@ -3252,49 +3349,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="409.6">
+    <row r="24" spans="1:15" ht="409.6">
       <c r="A24">
         <v>218</v>
       </c>
       <c r="C24">
         <v>760</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>202</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>182</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>243</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>74</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>2</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:218
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:218 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14 "加勢鳥保存会" ;
@@ -3305,49 +3406,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="409.6">
+    <row r="25" spans="1:15" ht="409.6">
       <c r="A25">
         <v>221</v>
       </c>
       <c r="C25">
         <v>765</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>2018</v>
+      </c>
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>201</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>183</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>244</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>7</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" t="s">
         <v>142</v>
       </c>
-      <c r="M25" s="12">
+      <c r="N25" s="12">
         <v>4</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:221 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14 "吉浜スネカ保存会" ;
@@ -3358,49 +3463,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="409.6">
+    <row r="26" spans="1:15" ht="409.6">
       <c r="A26">
         <v>228</v>
       </c>
       <c r="C26">
         <v>768</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>2018</v>
+      </c>
+      <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>199</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>184</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>245</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>45</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M26" s="12">
+      <c r="N26" s="12">
         <v>4</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:228 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14 "鳥羽区" ;
@@ -3411,49 +3520,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="409.6">
+    <row r="27" spans="1:15" ht="409.6">
       <c r="A27">
         <v>236</v>
       </c>
       <c r="C27">
         <v>800</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>61</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>214</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>185</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>246</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="12">
+      <c r="N27" s="12">
         <v>4</v>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:236
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:236 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14 "大浦グロ保存会" ;
@@ -3464,49 +3577,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="409.6">
+    <row r="28" spans="1:15" ht="409.6">
       <c r="A28">
         <v>240</v>
       </c>
       <c r="C28">
         <v>809</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2018</v>
+      </c>
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>201</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>186</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>247</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N28" s="12">
         <v>4</v>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:240 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14 "えんずのわり保存会" ;
@@ -3517,49 +3634,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="409.6">
+    <row r="29" spans="1:15" ht="409.6">
       <c r="A29">
         <v>245</v>
       </c>
       <c r="C29">
         <v>813</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>2018</v>
+      </c>
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>218</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>248</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>249</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>51</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="M29" s="12">
+      <c r="N29" s="12">
         <v>1</v>
       </c>
-      <c r="N29" s="4" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:245 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14 "東光寺追儺式及び田遊び保存会" ;
@@ -3570,49 +3691,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="409.6">
+    <row r="30" spans="1:15" ht="409.6">
       <c r="A30">
         <v>250</v>
       </c>
       <c r="C30">
         <v>824</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30" t="s">
         <v>57</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>213</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>187</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>250</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>150</v>
       </c>
-      <c r="M30" s="12">
+      <c r="N30" s="12">
         <v>4</v>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:250 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14 "酒津とんど祭り保存会" ;
@@ -3623,49 +3748,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="409.6">
+    <row r="31" spans="1:15" ht="409.6">
       <c r="A31">
         <v>253</v>
       </c>
       <c r="C31">
         <v>842</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>2018</v>
+      </c>
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>217</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>188</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>251</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>98</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="12">
+      <c r="N31" s="12">
         <v>2</v>
       </c>
-      <c r="N31" s="4" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:253 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14 "三島町年中行事保存会" ;
@@ -3676,49 +3805,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="409.6">
+    <row r="32" spans="1:15" ht="409.6">
       <c r="A32">
         <v>264</v>
       </c>
       <c r="C32">
         <v>857</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>206</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>65</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" t="s">
         <v>152</v>
       </c>
-      <c r="M32" s="12">
+      <c r="N32" s="12">
         <v>2</v>
       </c>
-      <c r="N32" s="4" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:264
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:264 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14 "神明祭顕彰会" ;
@@ -3729,49 +3862,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="409.6">
+    <row r="33" spans="1:15" ht="409.6">
       <c r="A33">
         <v>266</v>
       </c>
       <c r="C33">
         <v>872</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>215</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>189</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>252</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>36</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" t="s">
         <v>153</v>
       </c>
-      <c r="M33" s="12">
+      <c r="N33" s="12">
         <v>1</v>
       </c>
-      <c r="N33" s="4" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:266 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14 "塞の神まつり保存会" ;
@@ -3782,49 +3919,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="409.6">
+    <row r="34" spans="1:15" ht="409.6">
       <c r="A34">
         <v>269</v>
       </c>
       <c r="C34">
         <v>874</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>2018</v>
+      </c>
+      <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>209</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>253</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>254</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>31</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" t="s">
         <v>155</v>
       </c>
-      <c r="M34" s="12">
+      <c r="N34" s="12">
         <v>1</v>
       </c>
-      <c r="N34" s="4" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:269 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14 "三戸お精霊流し保存会" ;
@@ -3835,49 +3976,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="409.6">
+    <row r="35" spans="1:15" ht="409.6">
       <c r="A35">
         <v>277</v>
       </c>
       <c r="C35">
         <v>883</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>2018</v>
+      </c>
+      <c r="E35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>53</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>214</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>191</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>255</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="12">
+      <c r="N35" s="12">
         <v>1</v>
       </c>
-      <c r="N35" s="4" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:277 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
@@ -3888,49 +4033,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="409.6">
+    <row r="36" spans="1:15" ht="409.6">
       <c r="A36">
         <v>278</v>
       </c>
       <c r="C36">
         <v>885</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>2018</v>
+      </c>
+      <c r="E36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>206</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>192</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>257</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>67</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" t="s">
         <v>158</v>
       </c>
-      <c r="M36" s="12">
+      <c r="N36" s="12">
         <v>1</v>
       </c>
-      <c r="N36" s="4" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:278
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:278 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14 "地福といとい保存会" ;
@@ -3941,49 +4090,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="409.6">
+    <row r="37" spans="1:15" ht="409.6">
       <c r="A37">
         <v>298</v>
       </c>
       <c r="C37">
         <v>945</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>2018</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>79</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>195</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>193</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>256</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>82</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M37" t="s">
         <v>160</v>
       </c>
-      <c r="M37" s="12">
+      <c r="N37" s="12">
         <v>3</v>
       </c>
-      <c r="N37" s="4" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:298 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14 "悪石島の盆踊り保存会" ;
@@ -3994,49 +4147,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A38" s="8">
         <v>299</v>
       </c>
       <c r="C38" s="8">
         <v>944</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="K38" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M38" s="12">
+      <c r="N38" s="12">
         <v>1</v>
       </c>
-      <c r="N38" s="4" t="str">
+      <c r="O38" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2018 ;
     crm:P17 ifcp:299 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;
@@ -4047,84 +4204,84 @@
     ] . </v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" s="4"/>
+    <row r="39" spans="1:15">
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E56" xr:uid="{A989E8B0-0D9B-0342-BDF8-B3D467B87912}"/>
+  <autoFilter ref="F1:F56" xr:uid="{A989E8B0-0D9B-0342-BDF8-B3D467B87912}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{D81543B9-AB17-6244-909F-9AD1F807A46A}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{D1B7D269-3CB5-FF4B-BB2E-ABC2E286DB9E}"/>
-    <hyperlink ref="L5" r:id="rId3" xr:uid="{A19615CF-3FF1-3645-B992-A63D6A6D7596}"/>
-    <hyperlink ref="L7" r:id="rId4" xr:uid="{DCD7E471-C0C6-5246-8E78-5694B663A904}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{8F7EA0EC-B47F-2045-90D8-F2276FB4D8C7}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{D74385BF-588D-474D-BA65-D698FB5E6D73}"/>
-    <hyperlink ref="L10" r:id="rId7" xr:uid="{8BB0C2C1-1135-6C46-A1BD-DC339C2E18FF}"/>
-    <hyperlink ref="L20" r:id="rId8" xr:uid="{4B079B7C-6A98-834D-960A-AC3E0024FE15}"/>
-    <hyperlink ref="L26" r:id="rId9" xr:uid="{9F8024D0-E4CA-8348-A038-FDDCED6D637A}"/>
-    <hyperlink ref="L29" r:id="rId10" xr:uid="{F742D4E8-8E49-3C45-AD08-4E8CA8951B27}"/>
-    <hyperlink ref="L38" r:id="rId11" xr:uid="{D4725498-91E1-EE40-88E1-548A6413A4CB}"/>
-    <hyperlink ref="L11" r:id="rId12" xr:uid="{4AA7C54B-F5DB-D443-8937-8DAB72E04127}"/>
-    <hyperlink ref="L12" r:id="rId13" xr:uid="{719B0C73-B86D-9E49-83A3-B4ECBE542876}"/>
-    <hyperlink ref="L14" r:id="rId14" xr:uid="{8C181BC3-CD87-DC42-B61C-E668A625B5E5}"/>
-    <hyperlink ref="L15" r:id="rId15" xr:uid="{97F6D173-24C9-4245-BBF4-8B03D5CDBBB5}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{3B392B49-89D1-6E42-8236-ECC196376D09}"/>
-    <hyperlink ref="H21" r:id="rId17" xr:uid="{D676ABD2-196A-B841-AAEF-3649BF254333}"/>
-    <hyperlink ref="H22" r:id="rId18" display="http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240" xr:uid="{5C7D3353-076C-B74C-8C5F-90C8644B618A}"/>
-    <hyperlink ref="H13" r:id="rId19" xr:uid="{12029A51-AA02-1A41-B066-0775A56FA658}"/>
-    <hyperlink ref="H32" r:id="rId20" xr:uid="{BD6E48F9-076F-F74F-B407-57677E52A0BB}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{D81543B9-AB17-6244-909F-9AD1F807A46A}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{D1B7D269-3CB5-FF4B-BB2E-ABC2E286DB9E}"/>
+    <hyperlink ref="M5" r:id="rId3" xr:uid="{A19615CF-3FF1-3645-B992-A63D6A6D7596}"/>
+    <hyperlink ref="M7" r:id="rId4" xr:uid="{DCD7E471-C0C6-5246-8E78-5694B663A904}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{8F7EA0EC-B47F-2045-90D8-F2276FB4D8C7}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{D74385BF-588D-474D-BA65-D698FB5E6D73}"/>
+    <hyperlink ref="M10" r:id="rId7" xr:uid="{8BB0C2C1-1135-6C46-A1BD-DC339C2E18FF}"/>
+    <hyperlink ref="M20" r:id="rId8" xr:uid="{4B079B7C-6A98-834D-960A-AC3E0024FE15}"/>
+    <hyperlink ref="M26" r:id="rId9" xr:uid="{9F8024D0-E4CA-8348-A038-FDDCED6D637A}"/>
+    <hyperlink ref="M29" r:id="rId10" xr:uid="{F742D4E8-8E49-3C45-AD08-4E8CA8951B27}"/>
+    <hyperlink ref="M38" r:id="rId11" xr:uid="{D4725498-91E1-EE40-88E1-548A6413A4CB}"/>
+    <hyperlink ref="M11" r:id="rId12" xr:uid="{4AA7C54B-F5DB-D443-8937-8DAB72E04127}"/>
+    <hyperlink ref="M12" r:id="rId13" xr:uid="{719B0C73-B86D-9E49-83A3-B4ECBE542876}"/>
+    <hyperlink ref="M14" r:id="rId14" xr:uid="{8C181BC3-CD87-DC42-B61C-E668A625B5E5}"/>
+    <hyperlink ref="M15" r:id="rId15" xr:uid="{97F6D173-24C9-4245-BBF4-8B03D5CDBBB5}"/>
+    <hyperlink ref="I20" r:id="rId16" xr:uid="{3B392B49-89D1-6E42-8236-ECC196376D09}"/>
+    <hyperlink ref="I21" r:id="rId17" xr:uid="{D676ABD2-196A-B841-AAEF-3649BF254333}"/>
+    <hyperlink ref="I22" r:id="rId18" display="http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240" xr:uid="{5C7D3353-076C-B74C-8C5F-90C8644B618A}"/>
+    <hyperlink ref="I13" r:id="rId19" xr:uid="{12029A51-AA02-1A41-B066-0775A56FA658}"/>
+    <hyperlink ref="I32" r:id="rId20" xr:uid="{BD6E48F9-076F-F74F-B407-57677E52A0BB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460F88B-3384-5443-8E62-1863920445DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2F7EE-88F4-B44E-B212-CD080B0BA0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31000" yWindow="2600" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2001,7 +2001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2101,7 +2101,7 @@
     rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D2&amp;" ;
+    crm:P12 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
     crm:P7 &lt;"&amp;I2&amp;"&gt; ;
     crm:P14 """&amp;J2&amp;""" ;
@@ -2114,7 +2114,7 @@
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:49 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
@@ -2170,7 +2170,7 @@
     rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D3&amp;" ;
+    crm:P12 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
     crm:P7 &lt;"&amp;I3&amp;"&gt; ;
     crm:P14 """&amp;J3&amp;""" ;
@@ -2183,7 +2183,7 @@
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:51 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14 "男鹿のナマハゲ保存会" ;
@@ -2243,7 +2243,7 @@
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2303,7 +2303,7 @@
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2360,7 +2360,7 @@
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:109 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
@@ -2417,7 +2417,7 @@
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:110 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14 "六郷町カマクラ保存会" ;
@@ -2474,7 +2474,7 @@
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:124 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
@@ -2531,7 +2531,7 @@
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:131 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14 "猪俣の百八灯保存会" ;
@@ -2588,7 +2588,7 @@
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:135 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14 "下崎山町内会" ;
@@ -2645,7 +2645,7 @@
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:138 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14 "青海竹のからかい保存会" ;
@@ -2702,7 +2702,7 @@
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:140 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14 "松尾地下，河内地下" ;
@@ -2759,7 +2759,7 @@
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:145 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
@@ -2816,7 +2816,7 @@
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:156 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14 "野沢温泉村野沢組" ;
@@ -2873,7 +2873,7 @@
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:158 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
@@ -2930,7 +2930,7 @@
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:162 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
@@ -2987,7 +2987,7 @@
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:167 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
@@ -3044,7 +3044,7 @@
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:179 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14 "大磯町左義長保存会" ;
@@ -3101,7 +3101,7 @@
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:188 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
@@ -3161,7 +3161,7 @@
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3221,7 +3221,7 @@
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3281,7 +3281,7 @@
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3338,7 +3338,7 @@
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:204 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14 "米川の水かぶり保存会" ;
@@ -3395,7 +3395,7 @@
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:218 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14 "加勢鳥保存会" ;
@@ -3452,7 +3452,7 @@
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:221 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14 "吉浜スネカ保存会" ;
@@ -3509,7 +3509,7 @@
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:228 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14 "鳥羽区" ;
@@ -3566,7 +3566,7 @@
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:236 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14 "大浦グロ保存会" ;
@@ -3623,7 +3623,7 @@
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:240 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14 "えんずのわり保存会" ;
@@ -3680,7 +3680,7 @@
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:245 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14 "東光寺追儺式及び田遊び保存会" ;
@@ -3737,7 +3737,7 @@
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:250 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14 "酒津とんど祭り保存会" ;
@@ -3794,7 +3794,7 @@
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:253 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14 "三島町年中行事保存会" ;
@@ -3851,7 +3851,7 @@
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:264 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14 "神明祭顕彰会" ;
@@ -3908,7 +3908,7 @@
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:266 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14 "塞の神まつり保存会" ;
@@ -3965,7 +3965,7 @@
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:269 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14 "三戸お精霊流し保存会" ;
@@ -4022,7 +4022,7 @@
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:277 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
@@ -4079,7 +4079,7 @@
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:278 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14 "地福といとい保存会" ;
@@ -4136,7 +4136,7 @@
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:298 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14 "悪石島の盆踊り保存会" ;
@@ -4193,7 +4193,7 @@
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2018 ;
+    crm:P12 2018 ;
     crm:P17 ifcp:299 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA2F7EE-88F4-B44E-B212-CD080B0BA0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D95D7-0F6C-3849-BB1A-A6A73ED47F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="2600" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -944,39 +944,39 @@
     <t>http://data.e-stat.go.jp/lod/sac/C46521-19730401</t>
   </si>
   <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>URLレイヤー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.hikari.fun/archives/19937441.html</t>
+  </si>
+  <si>
+    <t>開催せず</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://nara.sirabe.jp/event/dadadonoonihashiri/</t>
+  </si>
+  <si>
+    <t>開催年</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>"@base &lt;https://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
-@prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
+@prefix crm: &lt;http://www.cidoc-crm.org/cidoc-crm/&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
 @prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
 @prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>URLレイヤー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.hikari.fun/archives/19937441.html</t>
-  </si>
-  <si>
-    <t>開催せず</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://nara.sirabe.jp/event/dadadonoonihashiri/</t>
-  </si>
-  <si>
-    <t>開催年</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2001,7 +2001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2050,10 +2050,10 @@
         <v>99</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.6">
@@ -2100,29 +2100,29 @@
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D2&amp;" ;
-    crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
-    crm:P14 """&amp;J2&amp;""" ;
-    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K2&amp;""" ;
-        crm:P115 """&amp;L2&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:49
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J2&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K2&amp;""" ;
+        crm:P115_finishes """&amp;L2&amp;""" 
+    ] ."</f>
+        <v>ifcp:49
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:49 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
-    crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
-    crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-12-31" ;
-        crm:P115 "2018-12-31" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:49 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
+    crm:P14_carried_out_by "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
+    crm:P67_refers_to &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-12-31" ;
+        crm:P115_finishes "2018-12-31" 
+    ] .</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="409.6">
@@ -2169,29 +2169,29 @@
         <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D3&amp;" ;
-    crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
-    crm:P14 """&amp;J3&amp;""" ;
-    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K3&amp;""" ;
-        crm:P115 """&amp;L3&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:51
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J3&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K3&amp;""" ;
+        crm:P115_finishes """&amp;L3&amp;""" 
+    ] ."</f>
+        <v>ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:51 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
-    crm:P14 "男鹿のナマハゲ保存会" ;
-    crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
-    crm:P4 [
-        crm:P116 "2018-12-31" ;
-        crm:P115 "2018-12-31" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:51 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
+    crm:P14_carried_out_by "男鹿のナマハゲ保存会" ;
+    crm:P67_refers_to &lt;https://www.namahage-oga.akita.jp&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-12-31" ;
+        crm:P115_finishes "2018-12-31" 
+    ] .</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="409.6">
@@ -2239,19 +2239,19 @@
       </c>
       <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/1&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:67 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
-    crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
-    crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-02" ;
-        crm:P115 "2018-01-02" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
+    crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
+    crm:P67_refers_to &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-02" ;
+        crm:P115_finishes "2018-01-02" 
+    ] .</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="409.6">
@@ -2299,19 +2299,19 @@
       </c>
       <c r="O5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2018/2&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:67 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
-    crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
-    crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-03" ;
-        crm:P115 "2018-02-03" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
+    crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
+    crm:P67_refers_to &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-03" ;
+        crm:P115_finishes "2018-02-03" 
+    ] .</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="409.6">
@@ -2356,19 +2356,19 @@
       </c>
       <c r="O6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:109
+        <v>ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:109 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
-    crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
-    crm:P67 &lt;https://kanko-minamisatsuma.jp/event/7547/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-24" ;
-        crm:P115 "2018-09-24" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:109 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
+    crm:P14_carried_out_by "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
+    crm:P67_refers_to &lt;https://kanko-minamisatsuma.jp/event/7547/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-24" ;
+        crm:P115_finishes "2018-09-24" 
+    ] .</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="409.6">
@@ -2413,19 +2413,19 @@
       </c>
       <c r="O7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:110
+        <v>ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:110 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
-    crm:P14 "六郷町カマクラ保存会" ;
-    crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-11" ;
-        crm:P115 "2018-02-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:110 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
+    crm:P14_carried_out_by "六郷町カマクラ保存会" ;
+    crm:P67_refers_to &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-11" ;
+        crm:P115_finishes "2018-02-15" 
+    ] .</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="409.6">
@@ -2470,19 +2470,19 @@
       </c>
       <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:124
+        <v>ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:124 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
-    crm:P14 "秋名ヒラセマンカイ保存会" ;
-    crm:P67 &lt;http://amamishimbun.co.jp/2018/09/11/13136/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-11" ;
-        crm:P115 "2018-09-11" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:124 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
+    crm:P14_carried_out_by "秋名ヒラセマンカイ保存会" ;
+    crm:P67_refers_to &lt;http://amamishimbun.co.jp/2018/09/11/13136/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-11" ;
+        crm:P115_finishes "2018-09-11" 
+    ] .</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="409.6">
@@ -2527,19 +2527,19 @@
       </c>
       <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:131
+        <v>ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:131 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
-    crm:P14 "猪俣の百八灯保存会" ;
-    crm:P67 &lt;https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-15" ;
-        crm:P115 "2018-08-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:131 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
+    crm:P14_carried_out_by "猪俣の百八灯保存会" ;
+    crm:P67_refers_to &lt;https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-15" ;
+        crm:P115_finishes "2018-08-15" 
+    ] .</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="409.6">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:135
+        <v>ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:135 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
-    crm:P14 "下崎山町内会" ;
-    crm:P67 &lt;https://www.nishinippon.co.jp/item/n/388880/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-21" ;
-        crm:P115 "2018-01-21" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:135 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
+    crm:P14_carried_out_by "下崎山町内会" ;
+    crm:P67_refers_to &lt;https://www.nishinippon.co.jp/item/n/388880/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-21" ;
+        crm:P115_finishes "2018-01-21" 
+    ] .</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="409.6">
@@ -2641,19 +2641,19 @@
       </c>
       <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:138
+        <v>ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:138 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
-    crm:P14 "青海竹のからかい保存会" ;
-    crm:P67 &lt;https://www.itoigawa-kanko.net/trad/ominotakenokarakai/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-15" ;
-        crm:P115 "2018-01-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:138 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
+    crm:P14_carried_out_by "青海竹のからかい保存会" ;
+    crm:P67_refers_to &lt;https://www.itoigawa-kanko.net/trad/ominotakenokarakai/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-15" ;
+        crm:P115_finishes "2018-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="409.6">
@@ -2698,19 +2698,19 @@
       </c>
       <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:140
+        <v>ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:140 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
-    crm:P14 "松尾地下，河内地下" ;
-    crm:P67 &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-14" ;
-        crm:P115 "2018-08-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:140 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
+    crm:P14_carried_out_by "松尾地下，河内地下" ;
+    crm:P67_refers_to &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-14" ;
+        crm:P115_finishes "2018-08-15" 
+    ] .</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="409.6">
@@ -2736,38 +2736,38 @@
         <v>176</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N13" s="12">
         <v>4</v>
       </c>
       <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:145
+        <v>ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:145 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
-    crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
-    crm:P67 &lt;http://www.hikari.fun/archives/19937441.html&gt; ;
-    crm:P4 [
-        crm:P116 "開催せず" ;
-        crm:P115 "開催せず" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:145 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
+    crm:P14_carried_out_by "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
+    crm:P67_refers_to &lt;http://www.hikari.fun/archives/19937441.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "開催せず" ;
+        crm:P115_finishes "開催せず" 
+    ] .</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="409.6">
@@ -2812,19 +2812,19 @@
       </c>
       <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:156
+        <v>ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:156 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
-    crm:P14 "野沢温泉村野沢組" ;
-    crm:P67 &lt;https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-15" ;
-        crm:P115 "2018-01-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:156 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
+    crm:P14_carried_out_by "野沢温泉村野沢組" ;
+    crm:P67_refers_to &lt;https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-15" ;
+        crm:P115_finishes "2018-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="409.6">
@@ -2869,19 +2869,19 @@
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:158
+        <v>ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:158 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
-    crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
-    crm:P67 &lt;https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-10-08" ;
-        crm:P115 "2018-10-09" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:158 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
+    crm:P14_carried_out_by "宮古島市島尻自治会，宮古島市野原部落会" ;
+    crm:P67_refers_to &lt;https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-10-08" ;
+        crm:P115_finishes "2018-10-09" 
+    ] .</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="409.6">
@@ -2926,19 +2926,19 @@
       </c>
       <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:162
+        <v>ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:162 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
-    crm:P14 "大善寺玉垂宮鬼夜保存会" ;
-    crm:P67 &lt;https://mainichi.jp/articles/20180108/k00/00m/040/121000c&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-07" ;
-        crm:P115 "2018-01-07" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:162 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
+    crm:P14_carried_out_by "大善寺玉垂宮鬼夜保存会" ;
+    crm:P67_refers_to &lt;https://mainichi.jp/articles/20180108/k00/00m/040/121000c&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-07" ;
+        crm:P115_finishes "2018-01-07" 
+    ] .</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="409.6">
@@ -2976,26 +2976,26 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N17" s="12">
         <v>4</v>
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:167
+        <v>ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:167 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
-    crm:P14 "念仏寺鬼はしり保存会" ;
-    crm:P67 &lt;https://nara.sirabe.jp/event/dadadonoonihashiri/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-14" ;
-        crm:P115 "2018-01-14" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:167 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
+    crm:P14_carried_out_by "念仏寺鬼はしり保存会" ;
+    crm:P67_refers_to &lt;https://nara.sirabe.jp/event/dadadonoonihashiri/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-14" ;
+        crm:P115_finishes "2018-01-14" 
+    ] .</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="409.6">
@@ -3040,19 +3040,19 @@
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:179
+        <v>ifcp:179
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:179 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
-    crm:P14 "大磯町左義長保存会" ;
-    crm:P67 &lt;https://paddler-shonan.com/eye/event-sagicho/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-13" ;
-        crm:P115 "2018-01-13" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:179 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
+    crm:P14_carried_out_by "大磯町左義長保存会" ;
+    crm:P67_refers_to &lt;https://paddler-shonan.com/eye/event-sagicho/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-13" ;
+        crm:P115_finishes "2018-01-13" 
+    ] .</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="409.6">
@@ -3097,19 +3097,19 @@
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:188
+        <v>ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:188 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
-    crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
-    crm:P67 &lt;https://matsuri-no-hi.com/matsuri/14018&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-15" ;
-        crm:P115 "2018-01-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:188 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
+    crm:P14_carried_out_by "横岡サエの神保存会、大森サエの神保存会" ;
+    crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/14018&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-15" ;
+        crm:P115_finishes "2018-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="409.6">
@@ -3157,19 +3157,19 @@
       </c>
       <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/1&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
-    crm:P14 "遊佐のアマハゲ保存会" ;
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-03" ;
-        crm:P115 "2018-01-03" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
+    crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-03" ;
+        crm:P115_finishes "2018-01-03" 
+    ] .</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="409.6">
@@ -3217,19 +3217,19 @@
       </c>
       <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/2&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
-    crm:P14 "遊佐のアマハゲ保存会" ;
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-01" ;
-        crm:P115 "2018-01-01" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
+    crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-01" ;
+        crm:P115_finishes "2018-01-01" 
+    ] .</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="409.6">
@@ -3277,19 +3277,19 @@
       </c>
       <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2018/3&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
-    crm:P14 "遊佐のアマハゲ保存会" ;
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-06" ;
-        crm:P115 "2018-01-06" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
+    crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-06" ;
+        crm:P115_finishes "2018-01-06" 
+    ] .</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="409.6">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:204
+        <v>ifcp:204
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:204 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
-    crm:P14 "米川の水かぶり保存会" ;
-    crm:P67 &lt;https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-07" ;
-        crm:P115 "2018-02-07" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:204 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
+    crm:P14_carried_out_by "米川の水かぶり保存会" ;
+    crm:P67_refers_to &lt;https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-07" ;
+        crm:P115_finishes "2018-02-07" 
+    ] .</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="409.6">
@@ -3391,19 +3391,19 @@
       </c>
       <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:218
+        <v>ifcp:218
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:218 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
-    crm:P14 "加勢鳥保存会" ;
-    crm:P67 &lt;https://www.asobo-saga.jp/event/detail.html?id=2418&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-10" ;
-        crm:P115 "2018-02-10" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:218 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
+    crm:P14_carried_out_by "加勢鳥保存会" ;
+    crm:P67_refers_to &lt;https://www.asobo-saga.jp/event/detail.html?id=2418&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-10" ;
+        crm:P115_finishes "2018-02-10" 
+    ] .</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="409.6">
@@ -3448,19 +3448,19 @@
       </c>
       <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:221
+        <v>ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:221 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
-    crm:P14 "吉浜スネカ保存会" ;
-    crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-15" ;
-        crm:P115 "2018-01-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:221 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
+    crm:P14_carried_out_by "吉浜スネカ保存会" ;
+    crm:P67_refers_to &lt;https://ofunato.jp/Summary/info/81&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-15" ;
+        crm:P115_finishes "2018-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="409.6">
@@ -3505,19 +3505,19 @@
       </c>
       <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:228
+        <v>ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:228 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
-    crm:P14 "鳥羽区" ;
-    crm:P67 &lt;https://www.katch.co.jp/kinjo/arekore/arekore44.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-11" ;
-        crm:P115 "2018-02-11" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:228 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
+    crm:P14_carried_out_by "鳥羽区" ;
+    crm:P67_refers_to &lt;https://www.katch.co.jp/kinjo/arekore/arekore44.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-11" ;
+        crm:P115_finishes "2018-02-11" 
+    ] .</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="409.6">
@@ -3562,19 +3562,19 @@
       </c>
       <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:236
+        <v>ifcp:236
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:236 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
-    crm:P14 "大浦グロ保存会" ;
-    crm:P67 &lt;https://matsuri-no-hi.com/matsuri/22712&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-11" ;
-        crm:P115 "2018-01-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:236 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
+    crm:P14_carried_out_by "大浦グロ保存会" ;
+    crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/22712&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-11" ;
+        crm:P115_finishes "2018-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="409.6">
@@ -3619,19 +3619,19 @@
       </c>
       <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:240
+        <v>ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:240 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
-    crm:P14 "えんずのわり保存会" ;
-    crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-11" ;
-        crm:P115 "2018-01-16" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:240 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
+    crm:P14_carried_out_by "えんずのわり保存会" ;
+    crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-11" ;
+        crm:P115_finishes "2018-01-16" 
+    ] .</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="409.6">
@@ -3676,19 +3676,19 @@
       </c>
       <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:245
+        <v>ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:245 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
-    crm:P14 "東光寺追儺式及び田遊び保存会" ;
-    crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-08" ;
-        crm:P115 "2018-01-08" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:245 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
+    crm:P14_carried_out_by "東光寺追儺式及び田遊び保存会" ;
+    crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-08" ;
+        crm:P115_finishes "2018-01-08" 
+    ] .</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="409.6">
@@ -3733,19 +3733,19 @@
       </c>
       <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:250
+        <v>ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:250 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
-    crm:P14 "酒津とんど祭り保存会" ;
-    crm:P67 &lt;https://matsuri-no-hi.com/matsuri/20962&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-13" ;
-        crm:P115 "2018-01-14" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:250 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
+    crm:P14_carried_out_by "酒津とんど祭り保存会" ;
+    crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/20962&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-13" ;
+        crm:P115_finishes "2018-01-14" 
+    ] .</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="409.6">
@@ -3790,19 +3790,19 @@
       </c>
       <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:253
+        <v>ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:253 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
-    crm:P14 "三島町年中行事保存会" ;
-    crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-15" ;
-        crm:P115 "2018-01-15" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:253 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
+    crm:P14_carried_out_by "三島町年中行事保存会" ;
+    crm:P67_refers_to &lt;http://www.mishima-kankou.net/20180112/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-15" ;
+        crm:P115_finishes "2018-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="409.6">
@@ -3828,7 +3828,7 @@
         <v>190</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
         <v>65</v>
@@ -3847,19 +3847,19 @@
       </c>
       <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:264
+        <v>ifcp:264
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:264 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
-    crm:P14 "神明祭顕彰会" ;
-    crm:P67 &lt;http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-11" ;
-        crm:P115 "2018-02-11" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:264 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
+    crm:P14_carried_out_by "神明祭顕彰会" ;
+    crm:P67_refers_to &lt;http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-11" ;
+        crm:P115_finishes "2018-02-11" 
+    ] .</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="409.6">
@@ -3904,19 +3904,19 @@
       </c>
       <c r="O33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:266
+        <v>ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:266 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
-    crm:P14 "塞の神まつり保存会" ;
-    crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-14" ;
-        crm:P115 "2018-01-14" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:266 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
+    crm:P14_carried_out_by "塞の神まつり保存会" ;
+    crm:P67_refers_to &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-14" ;
+        crm:P115_finishes "2018-01-14" 
+    ] .</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="409.6">
@@ -3961,19 +3961,19 @@
       </c>
       <c r="O34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:269
+        <v>ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:269 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
-    crm:P14 "三戸お精霊流し保存会" ;
-    crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-16" ;
-        crm:P115 "2018-08-16" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:269 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
+    crm:P14_carried_out_by "三戸お精霊流し保存会" ;
+    crm:P67_refers_to &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-16" ;
+        crm:P115_finishes "2018-08-16" 
+    ] .</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="409.6">
@@ -4018,19 +4018,19 @@
       </c>
       <c r="O35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:277
+        <v>ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:277 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
-    crm:P14 "江包・大西の御綱祭り保存会" ;
-    crm:P67 &lt;http://www.pref.nara.jp/17619.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2018-02-09" ;
-        crm:P115 "2018-02-11" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:277 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
+    crm:P14_carried_out_by "江包・大西の御綱祭り保存会" ;
+    crm:P67_refers_to &lt;http://www.pref.nara.jp/17619.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-02-09" ;
+        crm:P115_finishes "2018-02-11" 
+    ] .</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="409.6">
@@ -4075,19 +4075,19 @@
       </c>
       <c r="O36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:278
+        <v>ifcp:278
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:278 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
-    crm:P14 "地福といとい保存会" ;
-    crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-01-14" ;
-        crm:P115 "2018-01-14" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:278 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
+    crm:P14_carried_out_by "地福といとい保存会" ;
+    crm:P67_refers_to &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-01-14" ;
+        crm:P115_finishes "2018-01-14" 
+    ] .</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="409.6">
@@ -4132,19 +4132,19 @@
       </c>
       <c r="O37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:298
+        <v>ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:298 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
-    crm:P14 "悪石島の盆踊り保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/DA3S13652403.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-08-26" ;
-        crm:P115 "2018-08-26" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:298 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
+    crm:P14_carried_out_by "悪石島の盆踊り保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/DA3S13652403.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-08-26" ;
+        crm:P115_finishes "2018-08-26" 
+    ] .</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" ht="409.6">
@@ -4189,19 +4189,19 @@
       </c>
       <c r="O38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:299
+        <v>ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2018/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2018 ;
-    crm:P17 ifcp:299 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
-    crm:P14 "硫黄島八朔太鼓踊り保存会" ;
-    crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
-    crm:P4 [
-        crm:P116 "2018-09-10" ;
-        crm:P115 "2018-09-11" 
-    ] . </v>
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2018 ;
+    crm:P17_was_motivated_by ifcp:299 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
+    crm:P14_carried_out_by "硫黄島八朔太鼓踊り保存会" ;
+    crm:P67_refers_to &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2018-09-10" ;
+        crm:P115_finishes "2018-09-11" 
+    ] .</v>
       </c>
     </row>
     <row r="39" spans="1:15">

--- a/list_p5_event_2018.xlsx
+++ b/list_p5_event_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D95D7-0F6C-3849-BB1A-A6A73ED47F19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58A8C4-76B1-1348-8363-19763504333D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2001,7 +2001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2102,11 +2102,12 @@
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A2&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J2&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K2&amp;""" ;
         crm:P115_finishes """&amp;L2&amp;""" 
     ] ."</f>
@@ -2115,11 +2116,12 @@
 &lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:49 ;
+    crm:P21_had_general_purpose ifcp:49 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14_carried_out_by "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67_refers_to &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-12-31" ;
         crm:P115_finishes "2018-12-31" 
     ] .</v>
@@ -2171,11 +2173,12 @@
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A3&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J3&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K3&amp;""" ;
         crm:P115_finishes """&amp;L3&amp;""" 
     ] ."</f>
@@ -2184,11 +2187,12 @@
 &lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:51 ;
+    crm:P21_had_general_purpose ifcp:51 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14_carried_out_by "男鹿のナマハゲ保存会" ;
     crm:P67_refers_to &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-12-31" ;
         crm:P115_finishes "2018-12-31" 
     ] .</v>
@@ -2244,11 +2248,12 @@
 &lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P21_had_general_purpose ifcp:67 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67_refers_to &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-02" ;
         crm:P115_finishes "2018-01-02" 
     ] .</v>
@@ -2304,11 +2309,12 @@
 &lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P21_had_general_purpose ifcp:67 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67_refers_to &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-03" ;
         crm:P115_finishes "2018-02-03" 
     ] .</v>
@@ -2361,11 +2367,12 @@
 &lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:109 ;
+    crm:P21_had_general_purpose ifcp:109 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14_carried_out_by "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
     crm:P67_refers_to &lt;https://kanko-minamisatsuma.jp/event/7547/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-24" ;
         crm:P115_finishes "2018-09-24" 
     ] .</v>
@@ -2418,11 +2425,12 @@
 &lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:110 ;
+    crm:P21_had_general_purpose ifcp:110 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14_carried_out_by "六郷町カマクラ保存会" ;
     crm:P67_refers_to &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-11" ;
         crm:P115_finishes "2018-02-15" 
     ] .</v>
@@ -2475,11 +2483,12 @@
 &lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:124 ;
+    crm:P21_had_general_purpose ifcp:124 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14_carried_out_by "秋名ヒラセマンカイ保存会" ;
     crm:P67_refers_to &lt;http://amamishimbun.co.jp/2018/09/11/13136/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-11" ;
         crm:P115_finishes "2018-09-11" 
     ] .</v>
@@ -2532,11 +2541,12 @@
 &lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:131 ;
+    crm:P21_had_general_purpose ifcp:131 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14_carried_out_by "猪俣の百八灯保存会" ;
     crm:P67_refers_to &lt;https://www.saitamatsuri.jp/matsuri/inomata_hyakuhato/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-15" ;
         crm:P115_finishes "2018-08-15" 
     ] .</v>
@@ -2589,11 +2599,12 @@
 &lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:135 ;
+    crm:P21_had_general_purpose ifcp:135 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14_carried_out_by "下崎山町内会" ;
     crm:P67_refers_to &lt;https://www.nishinippon.co.jp/item/n/388880/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-21" ;
         crm:P115_finishes "2018-01-21" 
     ] .</v>
@@ -2646,11 +2657,12 @@
 &lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:138 ;
+    crm:P21_had_general_purpose ifcp:138 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14_carried_out_by "青海竹のからかい保存会" ;
     crm:P67_refers_to &lt;https://www.itoigawa-kanko.net/trad/ominotakenokarakai/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-15" ;
         crm:P115_finishes "2018-01-15" 
     ] .</v>
@@ -2703,11 +2715,12 @@
 &lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:140 ;
+    crm:P21_had_general_purpose ifcp:140 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14_carried_out_by "松尾地下，河内地下" ;
     crm:P67_refers_to &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-14" ;
         crm:P115_finishes "2018-08-15" 
     ] .</v>
@@ -2760,11 +2773,12 @@
 &lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:145 ;
+    crm:P21_had_general_purpose ifcp:145 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14_carried_out_by "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
     crm:P67_refers_to &lt;http://www.hikari.fun/archives/19937441.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "開催せず" ;
         crm:P115_finishes "開催せず" 
     ] .</v>
@@ -2817,11 +2831,12 @@
 &lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:156 ;
+    crm:P21_had_general_purpose ifcp:156 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14_carried_out_by "野沢温泉村野沢組" ;
     crm:P67_refers_to &lt;https://www.mtlabs.co.jp/shinshu/event/dousonoz.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-15" ;
         crm:P115_finishes "2018-01-15" 
     ] .</v>
@@ -2874,11 +2889,12 @@
 &lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:158 ;
+    crm:P21_had_general_purpose ifcp:158 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14_carried_out_by "宮古島市島尻自治会，宮古島市野原部落会" ;
     crm:P67_refers_to &lt;https://okinawa-repeat.com/aokisanae-taikenreport-miyakojima-shimajiri/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-10-08" ;
         crm:P115_finishes "2018-10-09" 
     ] .</v>
@@ -2931,11 +2947,12 @@
 &lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:162 ;
+    crm:P21_had_general_purpose ifcp:162 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14_carried_out_by "大善寺玉垂宮鬼夜保存会" ;
     crm:P67_refers_to &lt;https://mainichi.jp/articles/20180108/k00/00m/040/121000c&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-07" ;
         crm:P115_finishes "2018-01-07" 
     ] .</v>
@@ -2988,11 +3005,12 @@
 &lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:167 ;
+    crm:P21_had_general_purpose ifcp:167 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14_carried_out_by "念仏寺鬼はしり保存会" ;
     crm:P67_refers_to &lt;https://nara.sirabe.jp/event/dadadonoonihashiri/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-14" ;
         crm:P115_finishes "2018-01-14" 
     ] .</v>
@@ -3045,11 +3063,12 @@
 &lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:179 ;
+    crm:P21_had_general_purpose ifcp:179 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14_carried_out_by "大磯町左義長保存会" ;
     crm:P67_refers_to &lt;https://paddler-shonan.com/eye/event-sagicho/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-13" ;
         crm:P115_finishes "2018-01-13" 
     ] .</v>
@@ -3102,11 +3121,12 @@
 &lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:188 ;
+    crm:P21_had_general_purpose ifcp:188 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14_carried_out_by "横岡サエの神保存会、大森サエの神保存会" ;
     crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/14018&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-15" ;
         crm:P115_finishes "2018-01-15" 
     ] .</v>
@@ -3162,11 +3182,12 @@
 &lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P21_had_general_purpose ifcp:195 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-03" ;
         crm:P115_finishes "2018-01-03" 
     ] .</v>
@@ -3222,11 +3243,12 @@
 &lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P21_had_general_purpose ifcp:195 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-01" ;
         crm:P115_finishes "2018-01-01" 
     ] .</v>
@@ -3282,11 +3304,12 @@
 &lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P21_had_general_purpose ifcp:195 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-06" ;
         crm:P115_finishes "2018-01-06" 
     ] .</v>
@@ -3339,11 +3362,12 @@
 &lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:204 ;
+    crm:P21_had_general_purpose ifcp:204 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14_carried_out_by "米川の水かぶり保存会" ;
     crm:P67_refers_to &lt;https://www.city.tome.miyagi.jp/towa-simin/shisejoho/chiikijoho/2018yonekawanomizukaburijoho.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-07" ;
         crm:P115_finishes "2018-02-07" 
     ] .</v>
@@ -3396,11 +3420,12 @@
 &lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:218 ;
+    crm:P21_had_general_purpose ifcp:218 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14_carried_out_by "加勢鳥保存会" ;
     crm:P67_refers_to &lt;https://www.asobo-saga.jp/event/detail.html?id=2418&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-10" ;
         crm:P115_finishes "2018-02-10" 
     ] .</v>
@@ -3453,11 +3478,12 @@
 &lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:221 ;
+    crm:P21_had_general_purpose ifcp:221 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14_carried_out_by "吉浜スネカ保存会" ;
     crm:P67_refers_to &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-15" ;
         crm:P115_finishes "2018-01-15" 
     ] .</v>
@@ -3510,11 +3536,12 @@
 &lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:228 ;
+    crm:P21_had_general_purpose ifcp:228 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14_carried_out_by "鳥羽区" ;
     crm:P67_refers_to &lt;https://www.katch.co.jp/kinjo/arekore/arekore44.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-11" ;
         crm:P115_finishes "2018-02-11" 
     ] .</v>
@@ -3567,11 +3594,12 @@
 &lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:236 ;
+    crm:P21_had_general_purpose ifcp:236 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14_carried_out_by "大浦グロ保存会" ;
     crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/22712&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-11" ;
         crm:P115_finishes "2018-01-15" 
     ] .</v>
@@ -3624,11 +3652,12 @@
 &lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:240 ;
+    crm:P21_had_general_purpose ifcp:240 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14_carried_out_by "えんずのわり保存会" ;
     crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-11" ;
         crm:P115_finishes "2018-01-16" 
     ] .</v>
@@ -3681,11 +3710,12 @@
 &lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:245 ;
+    crm:P21_had_general_purpose ifcp:245 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14_carried_out_by "東光寺追儺式及び田遊び保存会" ;
     crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-08" ;
         crm:P115_finishes "2018-01-08" 
     ] .</v>
@@ -3738,11 +3768,12 @@
 &lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:250 ;
+    crm:P21_had_general_purpose ifcp:250 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14_carried_out_by "酒津とんど祭り保存会" ;
     crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/20962&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-13" ;
         crm:P115_finishes "2018-01-14" 
     ] .</v>
@@ -3795,11 +3826,12 @@
 &lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:253 ;
+    crm:P21_had_general_purpose ifcp:253 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14_carried_out_by "三島町年中行事保存会" ;
     crm:P67_refers_to &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-15" ;
         crm:P115_finishes "2018-01-15" 
     ] .</v>
@@ -3852,11 +3884,12 @@
 &lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:264 ;
+    crm:P21_had_general_purpose ifcp:264 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14_carried_out_by "神明祭顕彰会" ;
     crm:P67_refers_to &lt;http://www.oidemase.or.jp/blog-yanai/2018/01/16/【柳井市】阿月神明祭開催のお知らせ&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-11" ;
         crm:P115_finishes "2018-02-11" 
     ] .</v>
@@ -3909,11 +3942,12 @@
 &lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:266 ;
+    crm:P21_had_general_purpose ifcp:266 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14_carried_out_by "塞の神まつり保存会" ;
     crm:P67_refers_to &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-14" ;
         crm:P115_finishes "2018-01-14" 
     ] .</v>
@@ -3966,11 +4000,12 @@
 &lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:269 ;
+    crm:P21_had_general_purpose ifcp:269 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14_carried_out_by "三戸お精霊流し保存会" ;
     crm:P67_refers_to &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-16" ;
         crm:P115_finishes "2018-08-16" 
     ] .</v>
@@ -4023,11 +4058,12 @@
 &lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:277 ;
+    crm:P21_had_general_purpose ifcp:277 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14_carried_out_by "江包・大西の御綱祭り保存会" ;
     crm:P67_refers_to &lt;http://www.pref.nara.jp/17619.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-02-09" ;
         crm:P115_finishes "2018-02-11" 
     ] .</v>
@@ -4080,11 +4116,12 @@
 &lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:278 ;
+    crm:P21_had_general_purpose ifcp:278 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14_carried_out_by "地福といとい保存会" ;
     crm:P67_refers_to &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-01-14" ;
         crm:P115_finishes "2018-01-14" 
     ] .</v>
@@ -4137,11 +4174,12 @@
 &lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:298 ;
+    crm:P21_had_general_purpose ifcp:298 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14_carried_out_by "悪石島の盆踊り保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/DA3S13652403.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-08-26" ;
         crm:P115_finishes "2018-08-26" 
     ] .</v>
@@ -4194,11 +4232,12 @@
 &lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2018 ;
-    crm:P17_was_motivated_by ifcp:299 ;
+    crm:P21_had_general_purpose ifcp:299 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14_carried_out_by "硫黄島八朔太鼓踊り保存会" ;
     crm:P67_refers_to &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2018-09-10" ;
         crm:P115_finishes "2018-09-11" 
     ] .</v>
